--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>23.25110905005426</v>
       </c>
       <c r="C2">
-        <v>17.2403473634943</v>
+        <v>17.24034736349416</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.97613056899227</v>
+        <v>10.97613056899228</v>
       </c>
       <c r="F2">
-        <v>63.72997410505433</v>
+        <v>63.72997410505437</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.84832800975821</v>
+        <v>36.8483280097583</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6.896094646395142</v>
+        <v>6.896094646395108</v>
       </c>
       <c r="L2">
-        <v>11.80322437856855</v>
+        <v>11.80322437856851</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.44778195362344</v>
+        <v>21.44778195362346</v>
       </c>
       <c r="C3">
-        <v>15.91047781595311</v>
+        <v>15.91047781595302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.20286789220916</v>
+        <v>10.20286789220933</v>
       </c>
       <c r="F3">
-        <v>59.19422382338952</v>
+        <v>59.1942238233901</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.45976798670075</v>
+        <v>34.45976798670129</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.464018245220222</v>
+        <v>6.464018245220336</v>
       </c>
       <c r="L3">
-        <v>10.94537661491349</v>
+        <v>10.94537661491354</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.30195762716988</v>
+        <v>20.30195762716993</v>
       </c>
       <c r="C4">
-        <v>15.06477771877326</v>
+        <v>15.06477771877323</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.714461033111645</v>
+        <v>9.714461033111727</v>
       </c>
       <c r="F4">
-        <v>56.3297079544371</v>
+        <v>56.32970795443731</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.96331334511463</v>
+        <v>32.96331334511481</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.199763008052779</v>
+        <v>6.19976300805277</v>
       </c>
       <c r="L4">
-        <v>10.40617612445958</v>
+        <v>10.40617612445953</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82474789870958</v>
+        <v>19.82474789870962</v>
       </c>
       <c r="C5">
-        <v>14.71232594790326</v>
+        <v>14.71232594790341</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.511753632364712</v>
+        <v>9.511753632364881</v>
       </c>
       <c r="F5">
-        <v>55.1411386470132</v>
+        <v>55.14113864701358</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.34526248964612</v>
+        <v>32.3452624896465</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.09199704067214</v>
+        <v>6.09199704067225</v>
       </c>
       <c r="L5">
-        <v>10.18288203303761</v>
+        <v>10.18288203303766</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74487192962824</v>
+        <v>19.74487192962803</v>
       </c>
       <c r="C6">
-        <v>14.65331604674673</v>
+        <v>14.65331604674693</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.477865742031549</v>
+        <v>9.477865742031497</v>
       </c>
       <c r="F6">
-        <v>54.94246383116877</v>
+        <v>54.9424638311685</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.24212126797647</v>
+        <v>32.24212126797627</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.074088801615996</v>
+        <v>6.074088801615985</v>
       </c>
       <c r="L6">
-        <v>10.1455776804872</v>
+        <v>10.1455776804871</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.29556411055863</v>
+        <v>20.29556411055857</v>
       </c>
       <c r="C7">
-        <v>15.06005670375244</v>
+        <v>15.06005670375251</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.711742435577882</v>
+        <v>9.711742435577881</v>
       </c>
       <c r="F7">
-        <v>56.31376596038965</v>
+        <v>56.31376596038952</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.95501223216779</v>
+        <v>32.95501223216769</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.198310373579549</v>
+        <v>6.198310373579615</v>
       </c>
       <c r="L7">
-        <v>10.40317965366049</v>
+        <v>10.40317965366052</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.6369467439798</v>
+        <v>22.63694674397972</v>
       </c>
       <c r="C8">
-        <v>16.78754160615626</v>
+        <v>16.78754160615608</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.71216649444797</v>
+        <v>10.71216649444786</v>
       </c>
       <c r="F8">
-        <v>62.18168896905826</v>
+        <v>62.18168896905814</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.03044657399442</v>
+        <v>36.03044657399433</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6.746674304818654</v>
+        <v>6.746674304818677</v>
       </c>
       <c r="L8">
-        <v>11.50974744843849</v>
+        <v>11.50974744843848</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.95490139336772</v>
+        <v>26.95490139336766</v>
       </c>
       <c r="C9">
-        <v>19.97039803101466</v>
+        <v>19.97039803101498</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.58079677681639</v>
+        <v>12.58079677681632</v>
       </c>
       <c r="F9">
-        <v>73.30048239010966</v>
+        <v>73.30048239010971</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.8704850470797</v>
+        <v>41.87048504707964</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.849426657581649</v>
+        <v>7.849426657581747</v>
       </c>
       <c r="L9">
-        <v>13.60466387098386</v>
+        <v>13.60466387098394</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.01932209105097</v>
+        <v>30.01932209105095</v>
       </c>
       <c r="C10">
-        <v>22.23071419541757</v>
+        <v>22.23071419541747</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.92462165485164</v>
+        <v>13.92462165485179</v>
       </c>
       <c r="F10">
-        <v>81.36109310324019</v>
+        <v>81.36109310324042</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.13558672656974</v>
+        <v>46.13558672657012</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.711187069129728</v>
+        <v>8.711187069129856</v>
       </c>
       <c r="L10">
-        <v>15.14137077979055</v>
+        <v>15.14137077979059</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.40848704905577</v>
+        <v>31.40848704905572</v>
       </c>
       <c r="C11">
-        <v>23.25647040848054</v>
+        <v>23.25647040848036</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.53869775124288</v>
+        <v>14.53869775124283</v>
       </c>
       <c r="F11">
-        <v>85.03099528665167</v>
+        <v>85.0309952866516</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.10111088875112</v>
+        <v>48.10111088875114</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.12567013166354</v>
+        <v>9.125670131663405</v>
       </c>
       <c r="L11">
-        <v>15.85376539506318</v>
+        <v>15.85376539506308</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.93598947315363</v>
+        <v>31.93598947315341</v>
       </c>
       <c r="C12">
-        <v>23.64621351740424</v>
+        <v>23.64621351740421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.77270668279901</v>
+        <v>14.77270668279886</v>
       </c>
       <c r="F12">
-        <v>86.42731490223919</v>
+        <v>86.42731490223863</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.85277159248636</v>
+        <v>48.85277159248592</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.287197702521341</v>
+        <v>9.287197702521279</v>
       </c>
       <c r="L12">
-        <v>16.12708469459594</v>
+        <v>16.12708469459585</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.82227581401609</v>
+        <v>31.82227581401623</v>
       </c>
       <c r="C13">
-        <v>23.56218474088414</v>
+        <v>23.56218474088418</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.72222215202805</v>
+        <v>14.72222215202816</v>
       </c>
       <c r="F13">
-        <v>86.1261780684293</v>
+        <v>86.12617806842962</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.69048731751929</v>
+        <v>48.69048731751958</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.252180134007315</v>
+        <v>9.25218013400734</v>
       </c>
       <c r="L13">
-        <v>16.06803061563772</v>
+        <v>16.06803061563774</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.45184100900745</v>
+        <v>31.45184100900746</v>
       </c>
       <c r="C14">
-        <v>23.28849709086197</v>
+        <v>23.28849709086209</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.55791286119295</v>
+        <v>14.5579128611927</v>
       </c>
       <c r="F14">
-        <v>85.14569627172635</v>
+        <v>85.14569627172551</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.16277702933442</v>
+        <v>48.16277702933363</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.138858147058503</v>
+        <v>9.138858147058317</v>
       </c>
       <c r="L14">
         <v>15.87616907075045</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.22520412982293</v>
+        <v>31.2252041298228</v>
       </c>
       <c r="C15">
-        <v>23.12108464676896</v>
+        <v>23.12108464676862</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>14.4574983217241</v>
       </c>
       <c r="F15">
-        <v>84.54620082901239</v>
+        <v>84.54620082901235</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.84062988460082</v>
+        <v>47.8406298846008</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.070088097505009</v>
+        <v>9.070088097505099</v>
       </c>
       <c r="L15">
-        <v>15.75916840204093</v>
+        <v>15.75916840204091</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92860863706761</v>
+        <v>29.92860863706747</v>
       </c>
       <c r="C16">
-        <v>22.16376015375779</v>
+        <v>22.16376015375782</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.88463005985228</v>
+        <v>13.88463005985196</v>
       </c>
       <c r="F16">
-        <v>81.12180167754008</v>
+        <v>81.12180167753917</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.00793478210102</v>
+        <v>46.0079347821002</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.684656580904356</v>
+        <v>8.684656580904154</v>
       </c>
       <c r="L16">
-        <v>15.09521052913311</v>
+        <v>15.09521052913313</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.1332835512304</v>
+        <v>29.13328355123043</v>
       </c>
       <c r="C17">
-        <v>21.5768767886646</v>
+        <v>21.57687678866469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.5345638087354</v>
+        <v>13.53456380873478</v>
       </c>
       <c r="F17">
-        <v>79.02564091799933</v>
+        <v>79.02564091799778</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.89239875622979</v>
+        <v>44.89239875622833</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.454785755286785</v>
+        <v>8.454785755286414</v>
       </c>
       <c r="L17">
-        <v>14.69231870210537</v>
+        <v>14.69231870210542</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.67521652693447</v>
+        <v>28.67521652693448</v>
       </c>
       <c r="C18">
-        <v>21.23896076549454</v>
+        <v>21.23896076549461</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.33339448471335</v>
+        <v>13.33339448471338</v>
       </c>
       <c r="F18">
-        <v>77.819814267672</v>
+        <v>77.81981426767219</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.25287289941051</v>
+        <v>44.25287289941058</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.324583808234982</v>
+        <v>8.324583808235014</v>
       </c>
       <c r="L18">
-        <v>14.46171941866982</v>
+        <v>14.4617194186699</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51996145040623</v>
+        <v>28.51996145040647</v>
       </c>
       <c r="C19">
-        <v>21.12444397971539</v>
+        <v>21.12444397971558</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.2652854442833</v>
+        <v>13.26528544428401</v>
       </c>
       <c r="F19">
-        <v>77.41135524807281</v>
+        <v>77.41135524807484</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.03660700715934</v>
+        <v>44.03660700716107</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.280811379753656</v>
+        <v>8.28081137975405</v>
       </c>
       <c r="L19">
-        <v>14.38379538440342</v>
+        <v>14.38379538440349</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.21799757861394</v>
+        <v>29.21799757861388</v>
       </c>
       <c r="C20">
-        <v>21.63937788454837</v>
+        <v>21.63937788454827</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.57180367546843</v>
+        <v>13.57180367546822</v>
       </c>
       <c r="F20">
-        <v>79.24875991174243</v>
+        <v>79.2487599117418</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.0109089369905</v>
+        <v>45.01090893698997</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.479039135744452</v>
+        <v>8.479039135744326</v>
       </c>
       <c r="L20">
-        <v>14.7350797090547</v>
+        <v>14.73507970905468</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.5605865734704</v>
+        <v>31.56058657347043</v>
       </c>
       <c r="C21">
-        <v>23.36883428068068</v>
+        <v>23.3688342806807</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.60612417088512</v>
+        <v>14.60612417088475</v>
       </c>
       <c r="F21">
-        <v>85.43344885906197</v>
+        <v>85.4334488590611</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.31754248874787</v>
+        <v>48.31754248874712</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.172006498854662</v>
+        <v>9.172006498854524</v>
       </c>
       <c r="L21">
-        <v>15.93241135557605</v>
+        <v>15.9324113555761</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.1016505834269</v>
+        <v>33.10165058342696</v>
       </c>
       <c r="C22">
-        <v>24.50798131744093</v>
+        <v>24.50798131744101</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.29148509897273</v>
+        <v>15.2914850989726</v>
       </c>
       <c r="F22">
-        <v>89.51854833757818</v>
+        <v>89.51854833757803</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.52429726446095</v>
+        <v>50.52429726446076</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.65254768870181</v>
+        <v>9.652547688701777</v>
       </c>
       <c r="L22">
-        <v>16.73683718470769</v>
+        <v>16.73683718470779</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.27732840813317</v>
+        <v>32.27732840813319</v>
       </c>
       <c r="C23">
-        <v>23.89848671231005</v>
+        <v>23.89848671230986</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.92437899973582</v>
+        <v>14.92437899973555</v>
       </c>
       <c r="F23">
-        <v>87.33169322628318</v>
+        <v>87.33169322628265</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.34073272471532</v>
+        <v>49.34073272471485</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.392969507398272</v>
+        <v>9.392969507398172</v>
       </c>
       <c r="L23">
-        <v>16.30480111502747</v>
+        <v>16.30480111502744</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.17970108614025</v>
+        <v>29.1797010861402</v>
       </c>
       <c r="C24">
-        <v>21.61112284259994</v>
+        <v>21.6111228425998</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.55496733209842</v>
+        <v>13.55496733209802</v>
       </c>
       <c r="F24">
-        <v>79.14789047994077</v>
+        <v>79.14789047993992</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.95732510643013</v>
+        <v>44.95732510642932</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.468068191171128</v>
+        <v>8.468068191170895</v>
       </c>
       <c r="L24">
         <v>14.71574436928399</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.8108326482805</v>
+        <v>25.81083264828055</v>
       </c>
       <c r="C25">
-        <v>19.12706867698231</v>
+        <v>19.12706867698233</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.08283145051856</v>
+        <v>12.08283145051844</v>
       </c>
       <c r="F25">
-        <v>70.30293965279122</v>
+        <v>70.30293965279071</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.30327633327328</v>
+        <v>40.30327633327285</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.545092317717153</v>
+        <v>7.545092317717169</v>
       </c>
       <c r="L25">
-        <v>13.04212928328539</v>
+        <v>13.04212928328543</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>23.25110905005426</v>
       </c>
       <c r="C2">
-        <v>17.24034736349416</v>
+        <v>17.2403473634943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.97613056899228</v>
+        <v>10.97613056899227</v>
       </c>
       <c r="F2">
-        <v>63.72997410505437</v>
+        <v>63.72997410505433</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.8483280097583</v>
+        <v>36.84832800975821</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>6.896094646395108</v>
+        <v>6.896094646395142</v>
       </c>
       <c r="L2">
-        <v>11.80322437856851</v>
+        <v>11.80322437856855</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.44778195362346</v>
+        <v>21.44778195362344</v>
       </c>
       <c r="C3">
-        <v>15.91047781595302</v>
+        <v>15.91047781595311</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.20286789220933</v>
+        <v>10.20286789220916</v>
       </c>
       <c r="F3">
-        <v>59.1942238233901</v>
+        <v>59.19422382338952</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.45976798670129</v>
+        <v>34.45976798670075</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.464018245220336</v>
+        <v>6.464018245220222</v>
       </c>
       <c r="L3">
-        <v>10.94537661491354</v>
+        <v>10.94537661491349</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.30195762716993</v>
+        <v>20.30195762716988</v>
       </c>
       <c r="C4">
-        <v>15.06477771877323</v>
+        <v>15.06477771877326</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.714461033111727</v>
+        <v>9.714461033111645</v>
       </c>
       <c r="F4">
-        <v>56.32970795443731</v>
+        <v>56.3297079544371</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.96331334511481</v>
+        <v>32.96331334511463</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.19976300805277</v>
+        <v>6.199763008052779</v>
       </c>
       <c r="L4">
-        <v>10.40617612445953</v>
+        <v>10.40617612445958</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82474789870962</v>
+        <v>19.82474789870958</v>
       </c>
       <c r="C5">
-        <v>14.71232594790341</v>
+        <v>14.71232594790326</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.511753632364881</v>
+        <v>9.511753632364712</v>
       </c>
       <c r="F5">
-        <v>55.14113864701358</v>
+        <v>55.1411386470132</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.3452624896465</v>
+        <v>32.34526248964612</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.09199704067225</v>
+        <v>6.09199704067214</v>
       </c>
       <c r="L5">
-        <v>10.18288203303766</v>
+        <v>10.18288203303761</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74487192962803</v>
+        <v>19.74487192962824</v>
       </c>
       <c r="C6">
-        <v>14.65331604674693</v>
+        <v>14.65331604674673</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.477865742031497</v>
+        <v>9.477865742031549</v>
       </c>
       <c r="F6">
-        <v>54.9424638311685</v>
+        <v>54.94246383116877</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.24212126797627</v>
+        <v>32.24212126797647</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.074088801615985</v>
+        <v>6.074088801615996</v>
       </c>
       <c r="L6">
-        <v>10.1455776804871</v>
+        <v>10.1455776804872</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.29556411055857</v>
+        <v>20.29556411055863</v>
       </c>
       <c r="C7">
-        <v>15.06005670375251</v>
+        <v>15.06005670375244</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.711742435577881</v>
+        <v>9.711742435577882</v>
       </c>
       <c r="F7">
-        <v>56.31376596038952</v>
+        <v>56.31376596038965</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.95501223216769</v>
+        <v>32.95501223216779</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.198310373579615</v>
+        <v>6.198310373579549</v>
       </c>
       <c r="L7">
-        <v>10.40317965366052</v>
+        <v>10.40317965366049</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.63694674397972</v>
+        <v>22.6369467439798</v>
       </c>
       <c r="C8">
-        <v>16.78754160615608</v>
+        <v>16.78754160615626</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.71216649444786</v>
+        <v>10.71216649444797</v>
       </c>
       <c r="F8">
-        <v>62.18168896905814</v>
+        <v>62.18168896905826</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.03044657399433</v>
+        <v>36.03044657399442</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>6.746674304818677</v>
+        <v>6.746674304818654</v>
       </c>
       <c r="L8">
-        <v>11.50974744843848</v>
+        <v>11.50974744843849</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.95490139336766</v>
+        <v>26.95490139336772</v>
       </c>
       <c r="C9">
-        <v>19.97039803101498</v>
+        <v>19.97039803101466</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.58079677681632</v>
+        <v>12.58079677681639</v>
       </c>
       <c r="F9">
-        <v>73.30048239010971</v>
+        <v>73.30048239010966</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.87048504707964</v>
+        <v>41.8704850470797</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.849426657581747</v>
+        <v>7.849426657581649</v>
       </c>
       <c r="L9">
-        <v>13.60466387098394</v>
+        <v>13.60466387098386</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.01932209105095</v>
+        <v>30.01932209105097</v>
       </c>
       <c r="C10">
-        <v>22.23071419541747</v>
+        <v>22.23071419541757</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.92462165485179</v>
+        <v>13.92462165485164</v>
       </c>
       <c r="F10">
-        <v>81.36109310324042</v>
+        <v>81.36109310324019</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.13558672657012</v>
+        <v>46.13558672656974</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.711187069129856</v>
+        <v>8.711187069129728</v>
       </c>
       <c r="L10">
-        <v>15.14137077979059</v>
+        <v>15.14137077979055</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.40848704905572</v>
+        <v>31.40848704905577</v>
       </c>
       <c r="C11">
-        <v>23.25647040848036</v>
+        <v>23.25647040848054</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.53869775124283</v>
+        <v>14.53869775124288</v>
       </c>
       <c r="F11">
-        <v>85.0309952866516</v>
+        <v>85.03099528665167</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.10111088875114</v>
+        <v>48.10111088875112</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.125670131663405</v>
+        <v>9.12567013166354</v>
       </c>
       <c r="L11">
-        <v>15.85376539506308</v>
+        <v>15.85376539506318</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.93598947315341</v>
+        <v>31.93598947315363</v>
       </c>
       <c r="C12">
-        <v>23.64621351740421</v>
+        <v>23.64621351740424</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.77270668279886</v>
+        <v>14.77270668279901</v>
       </c>
       <c r="F12">
-        <v>86.42731490223863</v>
+        <v>86.42731490223919</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.85277159248592</v>
+        <v>48.85277159248636</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.287197702521279</v>
+        <v>9.287197702521341</v>
       </c>
       <c r="L12">
-        <v>16.12708469459585</v>
+        <v>16.12708469459594</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.82227581401623</v>
+        <v>31.82227581401609</v>
       </c>
       <c r="C13">
-        <v>23.56218474088418</v>
+        <v>23.56218474088414</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.72222215202816</v>
+        <v>14.72222215202805</v>
       </c>
       <c r="F13">
-        <v>86.12617806842962</v>
+        <v>86.1261780684293</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.69048731751958</v>
+        <v>48.69048731751929</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.25218013400734</v>
+        <v>9.252180134007315</v>
       </c>
       <c r="L13">
-        <v>16.06803061563774</v>
+        <v>16.06803061563772</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.45184100900746</v>
+        <v>31.45184100900745</v>
       </c>
       <c r="C14">
-        <v>23.28849709086209</v>
+        <v>23.28849709086197</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.5579128611927</v>
+        <v>14.55791286119295</v>
       </c>
       <c r="F14">
-        <v>85.14569627172551</v>
+        <v>85.14569627172635</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.16277702933363</v>
+        <v>48.16277702933442</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.138858147058317</v>
+        <v>9.138858147058503</v>
       </c>
       <c r="L14">
         <v>15.87616907075045</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.2252041298228</v>
+        <v>31.22520412982293</v>
       </c>
       <c r="C15">
-        <v>23.12108464676862</v>
+        <v>23.12108464676896</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>14.4574983217241</v>
       </c>
       <c r="F15">
-        <v>84.54620082901235</v>
+        <v>84.54620082901239</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.8406298846008</v>
+        <v>47.84062988460082</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.070088097505099</v>
+        <v>9.070088097505009</v>
       </c>
       <c r="L15">
-        <v>15.75916840204091</v>
+        <v>15.75916840204093</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92860863706747</v>
+        <v>29.92860863706761</v>
       </c>
       <c r="C16">
-        <v>22.16376015375782</v>
+        <v>22.16376015375779</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.88463005985196</v>
+        <v>13.88463005985228</v>
       </c>
       <c r="F16">
-        <v>81.12180167753917</v>
+        <v>81.12180167754008</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.0079347821002</v>
+        <v>46.00793478210102</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.684656580904154</v>
+        <v>8.684656580904356</v>
       </c>
       <c r="L16">
-        <v>15.09521052913313</v>
+        <v>15.09521052913311</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.13328355123043</v>
+        <v>29.1332835512304</v>
       </c>
       <c r="C17">
-        <v>21.57687678866469</v>
+        <v>21.5768767886646</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.53456380873478</v>
+        <v>13.5345638087354</v>
       </c>
       <c r="F17">
-        <v>79.02564091799778</v>
+        <v>79.02564091799933</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.89239875622833</v>
+        <v>44.89239875622979</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.454785755286414</v>
+        <v>8.454785755286785</v>
       </c>
       <c r="L17">
-        <v>14.69231870210542</v>
+        <v>14.69231870210537</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.67521652693448</v>
+        <v>28.67521652693447</v>
       </c>
       <c r="C18">
-        <v>21.23896076549461</v>
+        <v>21.23896076549454</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.33339448471338</v>
+        <v>13.33339448471335</v>
       </c>
       <c r="F18">
-        <v>77.81981426767219</v>
+        <v>77.819814267672</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.25287289941058</v>
+        <v>44.25287289941051</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.324583808235014</v>
+        <v>8.324583808234982</v>
       </c>
       <c r="L18">
-        <v>14.4617194186699</v>
+        <v>14.46171941866982</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51996145040647</v>
+        <v>28.51996145040623</v>
       </c>
       <c r="C19">
-        <v>21.12444397971558</v>
+        <v>21.12444397971539</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.26528544428401</v>
+        <v>13.2652854442833</v>
       </c>
       <c r="F19">
-        <v>77.41135524807484</v>
+        <v>77.41135524807281</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.03660700716107</v>
+        <v>44.03660700715934</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.28081137975405</v>
+        <v>8.280811379753656</v>
       </c>
       <c r="L19">
-        <v>14.38379538440349</v>
+        <v>14.38379538440342</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.21799757861388</v>
+        <v>29.21799757861394</v>
       </c>
       <c r="C20">
-        <v>21.63937788454827</v>
+        <v>21.63937788454837</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.57180367546822</v>
+        <v>13.57180367546843</v>
       </c>
       <c r="F20">
-        <v>79.2487599117418</v>
+        <v>79.24875991174243</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.01090893698997</v>
+        <v>45.0109089369905</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.479039135744326</v>
+        <v>8.479039135744452</v>
       </c>
       <c r="L20">
-        <v>14.73507970905468</v>
+        <v>14.7350797090547</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.56058657347043</v>
+        <v>31.5605865734704</v>
       </c>
       <c r="C21">
-        <v>23.3688342806807</v>
+        <v>23.36883428068068</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.60612417088475</v>
+        <v>14.60612417088512</v>
       </c>
       <c r="F21">
-        <v>85.4334488590611</v>
+        <v>85.43344885906197</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.31754248874712</v>
+        <v>48.31754248874787</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.172006498854524</v>
+        <v>9.172006498854662</v>
       </c>
       <c r="L21">
-        <v>15.9324113555761</v>
+        <v>15.93241135557605</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.10165058342696</v>
+        <v>33.1016505834269</v>
       </c>
       <c r="C22">
-        <v>24.50798131744101</v>
+        <v>24.50798131744093</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.2914850989726</v>
+        <v>15.29148509897273</v>
       </c>
       <c r="F22">
-        <v>89.51854833757803</v>
+        <v>89.51854833757818</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.52429726446076</v>
+        <v>50.52429726446095</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.652547688701777</v>
+        <v>9.65254768870181</v>
       </c>
       <c r="L22">
-        <v>16.73683718470779</v>
+        <v>16.73683718470769</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.27732840813319</v>
+        <v>32.27732840813317</v>
       </c>
       <c r="C23">
-        <v>23.89848671230986</v>
+        <v>23.89848671231005</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.92437899973555</v>
+        <v>14.92437899973582</v>
       </c>
       <c r="F23">
-        <v>87.33169322628265</v>
+        <v>87.33169322628318</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.34073272471485</v>
+        <v>49.34073272471532</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.392969507398172</v>
+        <v>9.392969507398272</v>
       </c>
       <c r="L23">
-        <v>16.30480111502744</v>
+        <v>16.30480111502747</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.1797010861402</v>
+        <v>29.17970108614025</v>
       </c>
       <c r="C24">
-        <v>21.6111228425998</v>
+        <v>21.61112284259994</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.55496733209802</v>
+        <v>13.55496733209842</v>
       </c>
       <c r="F24">
-        <v>79.14789047993992</v>
+        <v>79.14789047994077</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.95732510642932</v>
+        <v>44.95732510643013</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.468068191170895</v>
+        <v>8.468068191171128</v>
       </c>
       <c r="L24">
         <v>14.71574436928399</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.81083264828055</v>
+        <v>25.8108326482805</v>
       </c>
       <c r="C25">
-        <v>19.12706867698233</v>
+        <v>19.12706867698231</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.08283145051844</v>
+        <v>12.08283145051856</v>
       </c>
       <c r="F25">
-        <v>70.30293965279071</v>
+        <v>70.30293965279122</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.30327633327285</v>
+        <v>40.30327633327328</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.545092317717169</v>
+        <v>7.545092317717153</v>
       </c>
       <c r="L25">
-        <v>13.04212928328543</v>
+        <v>13.04212928328539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.25110905005426</v>
+        <v>23.08095115147894</v>
       </c>
       <c r="C2">
-        <v>17.2403473634943</v>
+        <v>17.039679789335</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.97613056899227</v>
+        <v>11.08360755782735</v>
       </c>
       <c r="F2">
-        <v>63.72997410505433</v>
+        <v>63.70035445555238</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.05913615581638</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.84832800975821</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>36.91724172316672</v>
       </c>
       <c r="K2">
-        <v>6.896094646395142</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.80322437856855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.975622313539585</v>
+      </c>
+      <c r="M2">
+        <v>11.69068603127414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.44778195362344</v>
+        <v>21.29398979673463</v>
       </c>
       <c r="C3">
-        <v>15.91047781595311</v>
+        <v>15.72013605473263</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.20286789220916</v>
+        <v>10.31907518593971</v>
       </c>
       <c r="F3">
-        <v>59.19422382338952</v>
+        <v>59.18531009315677</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.076948843132358</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.45976798670075</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>34.54664709577456</v>
       </c>
       <c r="K3">
-        <v>6.464018245220222</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.94537661491349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.546560644983344</v>
+      </c>
+      <c r="M3">
+        <v>10.83553408447854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.30195762716988</v>
+        <v>20.15900285414371</v>
       </c>
       <c r="C4">
-        <v>15.06477771877326</v>
+        <v>14.88101621006508</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.714461033111645</v>
+        <v>9.836599834123009</v>
       </c>
       <c r="F4">
-        <v>56.3297079544371</v>
+        <v>56.33401122858432</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.087931832297416</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.96331334511463</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>33.06175111084418</v>
       </c>
       <c r="K4">
-        <v>6.199763008052779</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>10.40617612445958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.284096257953223</v>
+      </c>
+      <c r="M4">
+        <v>10.29781421319015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.82474789870958</v>
+        <v>19.68643839588684</v>
       </c>
       <c r="C5">
-        <v>14.71232594790326</v>
+        <v>14.53132067704438</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.511753632364712</v>
+        <v>9.636467585511125</v>
       </c>
       <c r="F5">
-        <v>55.1411386470132</v>
+        <v>55.15099365089699</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.092430044551613</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.34526248964612</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>32.44856784895157</v>
       </c>
       <c r="K5">
-        <v>6.09199704067214</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>10.18288203303761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.177050616813246</v>
+      </c>
+      <c r="M5">
+        <v>10.07508439946035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.74487192962824</v>
+        <v>19.60734853874897</v>
       </c>
       <c r="C6">
-        <v>14.65331604674673</v>
+        <v>14.47277337081969</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.477865742031549</v>
+        <v>9.603017276492182</v>
       </c>
       <c r="F6">
-        <v>54.94246383116877</v>
+        <v>54.95325178974729</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.093178623959441</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.24212126797647</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>32.34624504877245</v>
       </c>
       <c r="K6">
-        <v>6.074088801615996</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>10.1455776804872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.159261558256244</v>
+      </c>
+      <c r="M6">
+        <v>10.03787148931271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.29556411055863</v>
+        <v>20.15267101619162</v>
       </c>
       <c r="C7">
-        <v>15.06005670375244</v>
+        <v>14.87633204548832</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.711742435577882</v>
+        <v>9.833915306634283</v>
       </c>
       <c r="F7">
-        <v>56.31376596038965</v>
+        <v>56.31814338679014</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.087992392022869</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.95501223216779</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>33.05351497672638</v>
       </c>
       <c r="K7">
-        <v>6.198310373579549</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10.40317965366049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.282653369771785</v>
+      </c>
+      <c r="M7">
+        <v>10.2948255057003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.6369467439798</v>
+        <v>22.47228594908116</v>
       </c>
       <c r="C8">
-        <v>16.78754160615626</v>
+        <v>16.59039341720144</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.71216649444797</v>
+        <v>10.8225436738251</v>
       </c>
       <c r="F8">
-        <v>62.18168896905826</v>
+        <v>62.15912891465136</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.065275592955089</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.03044657399442</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>36.10546115603349</v>
       </c>
       <c r="K8">
-        <v>6.746674304818654</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>11.50974744843849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>6.827257807255023</v>
+      </c>
+      <c r="M8">
+        <v>11.3981784043553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.95490139336772</v>
+        <v>26.75247787565408</v>
       </c>
       <c r="C9">
-        <v>19.97039803101466</v>
+        <v>19.74811295497731</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.58079677681639</v>
+        <v>12.67194023586023</v>
       </c>
       <c r="F9">
-        <v>73.30048239010966</v>
+        <v>73.20499217970936</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.020490311906137</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.8704850470797</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>41.90227925303072</v>
       </c>
       <c r="K9">
-        <v>7.849426657581649</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>13.60466387098386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>7.921810659979116</v>
+      </c>
+      <c r="M9">
+        <v>13.48505672635836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.01932209105097</v>
+        <v>29.79013413812244</v>
       </c>
       <c r="C10">
-        <v>22.23071419541757</v>
+        <v>21.98943421517826</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.92462165485164</v>
+        <v>14.0030664832557</v>
       </c>
       <c r="F10">
-        <v>81.36109310324019</v>
+        <v>81.22741569444474</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.986375339686647</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.13558672656974</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>46.13487672491548</v>
       </c>
       <c r="K10">
-        <v>8.711187069129728</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15.14137077979055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>8.776327400818602</v>
+      </c>
+      <c r="M10">
+        <v>15.01401912865784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.40848704905577</v>
+        <v>31.1667512913707</v>
       </c>
       <c r="C11">
-        <v>23.25647040848054</v>
+        <v>23.00602391466908</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.53869775124288</v>
+        <v>14.6114118317443</v>
       </c>
       <c r="F11">
-        <v>85.03099528665167</v>
+        <v>84.87801214238999</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.97026003455439</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.10111088875112</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>48.08460039736684</v>
       </c>
       <c r="K11">
-        <v>9.12567013166354</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>15.85376539506318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.186981299752343</v>
+      </c>
+      <c r="M11">
+        <v>15.72218018669614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.93598947315363</v>
+        <v>31.68937841470946</v>
       </c>
       <c r="C12">
-        <v>23.64621351740424</v>
+        <v>23.39216809365531</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.77270668279901</v>
+        <v>14.84322595360479</v>
       </c>
       <c r="F12">
-        <v>86.42731490223919</v>
+        <v>86.26657940066437</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.964033235310258</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>48.85277159248636</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>48.83002149216261</v>
       </c>
       <c r="K12">
-        <v>9.287197702521341</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>16.12708469459594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.346945411105542</v>
+      </c>
+      <c r="M12">
+        <v>15.99375097718243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.82227581401609</v>
+        <v>31.57672165958642</v>
       </c>
       <c r="C13">
-        <v>23.56218474088414</v>
+        <v>23.30892116752609</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.72222215202805</v>
+        <v>14.79321584513051</v>
       </c>
       <c r="F13">
-        <v>86.1261780684293</v>
+        <v>85.96713524143023</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.965380562414903</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>48.69048731751929</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>48.6690947257305</v>
       </c>
       <c r="K13">
-        <v>9.252180134007315</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>16.06803061563772</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.312270383133987</v>
+      </c>
+      <c r="M13">
+        <v>15.93508085414298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.45184100900745</v>
+        <v>31.20970713685428</v>
       </c>
       <c r="C14">
-        <v>23.28849709086197</v>
+        <v>23.03775744971107</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.55791286119295</v>
+        <v>14.63044709120668</v>
       </c>
       <c r="F14">
-        <v>85.14569627172635</v>
+        <v>84.99208539148188</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.969750507296117</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.16277702933442</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>48.14575914661454</v>
       </c>
       <c r="K14">
-        <v>9.138858147058503</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>15.87616907075045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.200043234596549</v>
+      </c>
+      <c r="M14">
+        <v>15.74444324720691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.22520412982293</v>
+        <v>30.98514662651479</v>
       </c>
       <c r="C15">
-        <v>23.12108464676896</v>
+        <v>22.87187242803826</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.4574983217241</v>
+        <v>14.53097182623901</v>
       </c>
       <c r="F15">
-        <v>84.54620082901239</v>
+        <v>84.39585355267177</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.972409689822898</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>47.84062988460082</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>47.82625415901084</v>
       </c>
       <c r="K15">
-        <v>9.070088097505009</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>15.75916840204093</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.131927650608272</v>
+      </c>
+      <c r="M15">
+        <v>15.628171712655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.92860863706761</v>
+        <v>29.7002277889048</v>
       </c>
       <c r="C16">
-        <v>22.16376015375779</v>
+        <v>21.92306464998043</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.88463005985228</v>
+        <v>13.96344790512585</v>
       </c>
       <c r="F16">
-        <v>81.12180167754008</v>
+        <v>80.98933458591824</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.987413479995112</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.00793478210102</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>46.00822854859908</v>
       </c>
       <c r="K16">
-        <v>8.684656580904356</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15.09521052913311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>8.750033644046381</v>
+      </c>
+      <c r="M16">
+        <v>14.96811800038585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.1332835512304</v>
+        <v>28.91192805515899</v>
       </c>
       <c r="C17">
-        <v>21.5768767886646</v>
+        <v>21.34124029518926</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.5345638087354</v>
+        <v>13.61665298601368</v>
       </c>
       <c r="F17">
-        <v>79.02564091799933</v>
+        <v>78.9035511533952</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.996441132003348</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.89239875622979</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>44.90136676410256</v>
       </c>
       <c r="K17">
-        <v>8.454785755286785</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>14.69231870210537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>8.522174892931231</v>
+      </c>
+      <c r="M17">
+        <v>14.5674142792904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.67521652693447</v>
+        <v>28.45787205180103</v>
       </c>
       <c r="C18">
-        <v>21.23896076549454</v>
+        <v>21.00618863149216</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.33339448471335</v>
+        <v>13.41737191103126</v>
       </c>
       <c r="F18">
-        <v>77.819814267672</v>
+        <v>77.70352398584922</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.00158033670515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.25287289941051</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>44.26674323547138</v>
       </c>
       <c r="K18">
-        <v>8.324583808234982</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>14.46171941866982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>8.393082879777158</v>
+      </c>
+      <c r="M18">
+        <v>14.33801009919106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51996145040623</v>
+        <v>28.30397167307309</v>
       </c>
       <c r="C19">
-        <v>21.12444397971539</v>
+        <v>20.89263513718117</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.2652854442833</v>
+        <v>13.34990412724619</v>
       </c>
       <c r="F19">
-        <v>77.41135524807281</v>
+        <v>77.29700342676405</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.003312229885905</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.03660700715934</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>44.05212493749143</v>
       </c>
       <c r="K19">
-        <v>8.280811379753656</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>14.38379538440342</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>8.34967898969834</v>
+      </c>
+      <c r="M19">
+        <v>14.26048082697225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.21799757861394</v>
+        <v>28.9958977321645</v>
       </c>
       <c r="C20">
-        <v>21.63937788454837</v>
+        <v>21.40320786825149</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.57180367546843</v>
+        <v>13.65354411576929</v>
       </c>
       <c r="F20">
-        <v>79.24875991174243</v>
+        <v>79.12558395223459</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.995485878313254</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.0109089369905</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>45.01896320528904</v>
       </c>
       <c r="K20">
-        <v>8.479039135744452</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>14.7350797090547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>8.546219200620449</v>
+      </c>
+      <c r="M20">
+        <v>14.60994917576965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.5605865734704</v>
+        <v>31.31745213438164</v>
       </c>
       <c r="C21">
-        <v>23.36883428068068</v>
+        <v>23.11735729267696</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.60612417088512</v>
+        <v>14.67820688758697</v>
       </c>
       <c r="F21">
-        <v>85.43344885906197</v>
+        <v>85.27825614394855</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.968470689648435</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.31754248874787</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>48.29924772625855</v>
       </c>
       <c r="K21">
-        <v>9.172006498854662</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>15.93241135557605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.23287346336442</v>
+      </c>
+      <c r="M21">
+        <v>15.80033042507477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.1016505834269</v>
+        <v>32.84399180435677</v>
       </c>
       <c r="C22">
-        <v>24.50798131744093</v>
+        <v>24.24571267550256</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.29148509897273</v>
+        <v>15.35708699223916</v>
       </c>
       <c r="F22">
-        <v>89.51854833757818</v>
+        <v>89.33971714209562</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.95006246924288</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.52429726446095</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>50.48719501790973</v>
       </c>
       <c r="K22">
-        <v>9.65254768870181</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>16.73683718470769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>9.708595555617611</v>
+      </c>
+      <c r="M22">
+        <v>16.59932867329188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.27732840813317</v>
+        <v>32.02752387511011</v>
       </c>
       <c r="C23">
-        <v>23.89848671231005</v>
+        <v>23.64207356504211</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.92437899973582</v>
+        <v>14.99346923010368</v>
       </c>
       <c r="F23">
-        <v>87.33169322628318</v>
+        <v>87.16580252690153</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.959972320119863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.34073272471532</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>49.313864485266</v>
       </c>
       <c r="K23">
-        <v>9.392969507398272</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16.30480111502747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>9.451670101304757</v>
+      </c>
+      <c r="M23">
+        <v>16.17029082610683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.17970108614025</v>
+        <v>28.95793784267291</v>
       </c>
       <c r="C24">
-        <v>21.61112284259994</v>
+        <v>21.37519416583313</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.55496733209842</v>
+        <v>13.63686541079947</v>
       </c>
       <c r="F24">
-        <v>79.14789047994077</v>
+        <v>79.02520609680693</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.995917904355109</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.95732510643013</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>44.96579273234011</v>
       </c>
       <c r="K24">
-        <v>8.468068191171128</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>14.71574436928399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>8.535342921227389</v>
+      </c>
+      <c r="M24">
+        <v>14.59071625342468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.8108326482805</v>
+        <v>25.61829022859382</v>
       </c>
       <c r="C25">
-        <v>19.12706867698231</v>
+        <v>18.91156809526693</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.08283145051856</v>
+        <v>12.17885175189193</v>
       </c>
       <c r="F25">
-        <v>70.30293965279122</v>
+        <v>70.22058075863016</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.032726907734038</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.30327633327328</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>40.34667440804364</v>
       </c>
       <c r="K25">
-        <v>7.545092317717153</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>13.04212928328539</v>
+        <v>7.619842016046598</v>
+      </c>
+      <c r="M25">
+        <v>12.92494419787414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.08095115147894</v>
+        <v>26.41216954528298</v>
       </c>
       <c r="C2">
-        <v>17.039679789335</v>
+        <v>14.27956108085531</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.08360755782735</v>
+        <v>5.883668151440066</v>
       </c>
       <c r="F2">
-        <v>63.70035445555238</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.05913615581638</v>
+        <v>2.080249418612982</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.91724172316672</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.975622313539585</v>
+        <v>7.564489793053743</v>
       </c>
       <c r="M2">
-        <v>11.69068603127414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.58676678925695</v>
+      </c>
+      <c r="O2">
+        <v>26.56392066222082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.29398979673463</v>
+        <v>24.69831071153473</v>
       </c>
       <c r="C3">
-        <v>15.72013605473263</v>
+        <v>13.3063536749098</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.31907518593971</v>
+        <v>5.904142132625345</v>
       </c>
       <c r="F3">
-        <v>59.18531009315677</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.076948843132358</v>
+        <v>2.091731807621727</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>34.54664709577456</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.546560644983344</v>
+        <v>7.301953347246137</v>
       </c>
       <c r="M3">
-        <v>10.83553408447854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.88827005201479</v>
+      </c>
+      <c r="O3">
+        <v>25.66955754921173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.15900285414371</v>
+        <v>23.60728672592422</v>
       </c>
       <c r="C4">
-        <v>14.88101621006508</v>
+        <v>12.68004444767305</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.836599834123009</v>
+        <v>5.91920440226128</v>
       </c>
       <c r="F4">
-        <v>56.33401122858432</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.087931832297416</v>
+        <v>2.098924392128502</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>33.06175111084418</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.284096257953223</v>
+        <v>7.142287696347084</v>
       </c>
       <c r="M4">
-        <v>10.29781421319015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.07612495100471</v>
+      </c>
+      <c r="O4">
+        <v>25.1417920345161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.68643839588684</v>
+        <v>23.15309610732525</v>
       </c>
       <c r="C5">
-        <v>14.53132067704438</v>
+        <v>12.41747075215445</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.636467585511125</v>
+        <v>5.925949209253738</v>
       </c>
       <c r="F5">
-        <v>55.15099365089699</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.092430044551613</v>
+        <v>2.101894374000534</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>32.44856784895157</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.177050616813246</v>
+        <v>7.077662327268124</v>
       </c>
       <c r="M5">
-        <v>10.07508439946035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.15341851672427</v>
+      </c>
+      <c r="O5">
+        <v>24.9320890380213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.60734853874897</v>
+        <v>23.07710496618497</v>
       </c>
       <c r="C6">
-        <v>14.47277337081969</v>
+        <v>12.3734237086116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.603017276492182</v>
+        <v>5.927105281924299</v>
       </c>
       <c r="F6">
-        <v>54.95325178974729</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.093178623959441</v>
+        <v>2.102389976537491</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>32.34624504877245</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.159261558256244</v>
+        <v>7.066959618583486</v>
       </c>
       <c r="M6">
-        <v>10.03787148931271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.16629936475266</v>
+      </c>
+      <c r="O6">
+        <v>24.89759192091755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.15267101619162</v>
+        <v>23.60119992123404</v>
       </c>
       <c r="C7">
-        <v>14.87633204548832</v>
+        <v>12.67653318001262</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.833915306634283</v>
+        <v>5.91929293303512</v>
       </c>
       <c r="F7">
-        <v>56.31814338679014</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.087992392022869</v>
+        <v>2.098964284680777</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>33.05351497672638</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.282653369771785</v>
+        <v>7.141414278550165</v>
       </c>
       <c r="M7">
-        <v>10.2948255057003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.07716428784091</v>
+      </c>
+      <c r="O7">
+        <v>25.13894218872482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.47228594908116</v>
+        <v>25.82932258854921</v>
       </c>
       <c r="C8">
-        <v>16.59039341720144</v>
+        <v>13.94989212581518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.8225436738251</v>
+        <v>5.890198288356145</v>
       </c>
       <c r="F8">
-        <v>62.15912891465136</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.065275592955089</v>
+        <v>2.084180984775183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>36.10546115603349</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.827257807255023</v>
+        <v>7.473679047892258</v>
       </c>
       <c r="M8">
-        <v>11.3981784043553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.69019201074405</v>
+      </c>
+      <c r="O8">
+        <v>26.25109797777113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.75247787565408</v>
+        <v>30.11114637243998</v>
       </c>
       <c r="C9">
-        <v>19.74811295497731</v>
+        <v>16.22493527706405</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.67194023586023</v>
+        <v>5.8538733051695</v>
       </c>
       <c r="F9">
-        <v>73.20499217970936</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.020490311906137</v>
+        <v>2.056162301219374</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.90227925303072</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.921810659979116</v>
+        <v>8.135537348034257</v>
       </c>
       <c r="M9">
-        <v>13.48505672635836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.95040908360903</v>
+      </c>
+      <c r="O9">
+        <v>28.60317695432486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.79013413812244</v>
+        <v>33.08270505030636</v>
       </c>
       <c r="C10">
-        <v>21.98943421517826</v>
+        <v>17.77104570923531</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.0030664832557</v>
+        <v>5.84129964603914</v>
       </c>
       <c r="F10">
-        <v>81.22741569444474</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>1.986375339686647</v>
+        <v>2.035920107773003</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.13487672491548</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.776327400818602</v>
+        <v>8.626496757857366</v>
       </c>
       <c r="M10">
-        <v>15.01401912865784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.41472499472057</v>
+      </c>
+      <c r="O10">
+        <v>30.4405664029452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.1667512913707</v>
+        <v>34.38784764432196</v>
       </c>
       <c r="C11">
-        <v>23.00602391466908</v>
+        <v>18.44984271261926</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.6114118317443</v>
+        <v>5.839017428750893</v>
       </c>
       <c r="F11">
-        <v>84.87801214238999</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.97026003455439</v>
+        <v>2.02672093520489</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>48.08460039736684</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.186981299752343</v>
+        <v>8.850839838839256</v>
       </c>
       <c r="M11">
-        <v>15.72218018669614</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.17186332419177</v>
+      </c>
+      <c r="O11">
+        <v>31.30238367765813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.68937841470946</v>
+        <v>34.87578769312844</v>
       </c>
       <c r="C12">
-        <v>23.39216809365531</v>
+        <v>18.70361657477886</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.84322595360479</v>
+        <v>5.838683058285573</v>
       </c>
       <c r="F12">
-        <v>86.26657940066437</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.964033235310258</v>
+        <v>2.023232420621746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>48.83002149216261</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.346945411105542</v>
+        <v>8.935958067003641</v>
       </c>
       <c r="M12">
-        <v>15.99375097718243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.07994385518564</v>
+      </c>
+      <c r="O12">
+        <v>31.63274975579039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.57672165958642</v>
+        <v>34.77097337597061</v>
       </c>
       <c r="C13">
-        <v>23.30892116752609</v>
+        <v>18.64910285174565</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.79321584513051</v>
+        <v>5.838730893044086</v>
       </c>
       <c r="F13">
-        <v>85.96713524143023</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.965380562414903</v>
+        <v>2.023984066729099</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>48.6690947257305</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.312270383133987</v>
+        <v>8.917618481333482</v>
       </c>
       <c r="M13">
-        <v>15.93508085414298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.09973940784929</v>
+      </c>
+      <c r="O13">
+        <v>31.56141546673841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.20970713685428</v>
+        <v>34.42811416621996</v>
       </c>
       <c r="C14">
-        <v>23.03775744971107</v>
+        <v>18.47078480767487</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.63044709120668</v>
+        <v>5.838979081822933</v>
       </c>
       <c r="F14">
-        <v>84.99208539148188</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.969750507296117</v>
+        <v>2.026434072339729</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>48.14575914661454</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.200043234596549</v>
+        <v>8.857839083685041</v>
       </c>
       <c r="M14">
-        <v>15.74444324720691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.16430052287186</v>
+      </c>
+      <c r="O14">
+        <v>31.32948068969812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.98514662651479</v>
+        <v>34.21729755907054</v>
       </c>
       <c r="C15">
-        <v>22.87187242803826</v>
+        <v>18.36114202957017</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.53097182623901</v>
+        <v>5.83920123550161</v>
       </c>
       <c r="F15">
-        <v>84.39585355267177</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.972409689822898</v>
+        <v>2.027933919404047</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>47.82625415901084</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.131927650608272</v>
+        <v>8.821244830446471</v>
       </c>
       <c r="M15">
-        <v>15.628171712655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.20385006116978</v>
+      </c>
+      <c r="O15">
+        <v>31.18794669228275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.7002277889048</v>
+        <v>32.99650654893345</v>
       </c>
       <c r="C16">
-        <v>21.92306464998043</v>
+        <v>17.72621207204406</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.96344790512585</v>
+        <v>5.841520909466543</v>
       </c>
       <c r="F16">
-        <v>80.98933458591824</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.987413479995112</v>
+        <v>2.036520960665968</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>46.00822854859908</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.750033644046381</v>
+        <v>8.611856855749698</v>
       </c>
       <c r="M16">
-        <v>14.96811800038585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.43060705359158</v>
+      </c>
+      <c r="O16">
+        <v>30.38478906343631</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.91192805515899</v>
+        <v>32.23592145921935</v>
       </c>
       <c r="C17">
-        <v>21.34124029518926</v>
+        <v>17.33058974852805</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.61665298601368</v>
+        <v>5.843848389630323</v>
       </c>
       <c r="F17">
-        <v>78.9035511533952</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>1.996441132003348</v>
+        <v>2.041786960426214</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.90136676410256</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.522174892931231</v>
+        <v>8.483669070653949</v>
       </c>
       <c r="M17">
-        <v>14.5674142792904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.56987546880827</v>
+      </c>
+      <c r="O17">
+        <v>29.89890094723284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.45787205180103</v>
+        <v>31.79403464056752</v>
       </c>
       <c r="C18">
-        <v>21.00618863149216</v>
+        <v>17.10071136758181</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.41737191103126</v>
+        <v>5.845508299618889</v>
       </c>
       <c r="F18">
-        <v>77.70352398584922</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.00158033670515</v>
+        <v>2.04481710690273</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.26674323547138</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.393082879777158</v>
+        <v>8.41003089643678</v>
       </c>
       <c r="M18">
-        <v>14.33801009919106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.6500608757831</v>
+      </c>
+      <c r="O18">
+        <v>29.62185439568265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.30397167307309</v>
+        <v>31.64364892066479</v>
       </c>
       <c r="C19">
-        <v>20.89263513718117</v>
+        <v>17.02247163528241</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.34990412724619</v>
+        <v>5.846124468714674</v>
       </c>
       <c r="F19">
-        <v>77.29700342676405</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.003312229885905</v>
+        <v>2.045843460204059</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.05212493749143</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.34967898969834</v>
+        <v>8.385113799209714</v>
       </c>
       <c r="M19">
-        <v>14.26048082697225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.67722650971506</v>
+      </c>
+      <c r="O19">
+        <v>29.52846045190405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.9958977321645</v>
+        <v>32.31734153007044</v>
       </c>
       <c r="C20">
-        <v>21.40320786825149</v>
+        <v>17.37294350434785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.65354411576929</v>
+        <v>5.843567137901977</v>
       </c>
       <c r="F20">
-        <v>79.12558395223459</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>1.995485878313254</v>
+        <v>2.041226295761715</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>45.01896320528904</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.546219200620449</v>
+        <v>8.497305271064871</v>
       </c>
       <c r="M20">
-        <v>14.60994917576965</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.55504214820567</v>
+      </c>
+      <c r="O20">
+        <v>29.9503720329345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.31745213438164</v>
+        <v>34.52898723396207</v>
       </c>
       <c r="C21">
-        <v>23.11735729267696</v>
+        <v>18.52324770173383</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.67820688758697</v>
+        <v>5.838891497919408</v>
       </c>
       <c r="F21">
-        <v>85.27825614394855</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.968470689648435</v>
+        <v>2.025714636453708</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>48.29924772625855</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.23287346336442</v>
+        <v>8.875393017983486</v>
       </c>
       <c r="M21">
-        <v>15.80033042507477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.14533665420265</v>
+      </c>
+      <c r="O21">
+        <v>31.39749389285235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.84399180435677</v>
+        <v>35.93801463920004</v>
       </c>
       <c r="C22">
-        <v>24.24571267550256</v>
+        <v>19.25611525380863</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.35708699223916</v>
+        <v>5.838943860310045</v>
       </c>
       <c r="F22">
-        <v>89.33971714209562</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.95006246924288</v>
+        <v>2.015544173816068</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>50.48719501790973</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.708595555617611</v>
+        <v>9.123477924785469</v>
       </c>
       <c r="M22">
-        <v>16.59932867329188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.87781136126762</v>
+      </c>
+      <c r="O22">
+        <v>32.36687527571817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.02752387511011</v>
+        <v>35.1891648632707</v>
       </c>
       <c r="C23">
-        <v>23.64207356504211</v>
+        <v>18.86660638457446</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.99346923010368</v>
+        <v>5.838618607176226</v>
       </c>
       <c r="F23">
-        <v>87.16580252690153</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.959972320119863</v>
+        <v>2.020977664244712</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49.313864485266</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.451670101304757</v>
+        <v>8.990968276195796</v>
       </c>
       <c r="M23">
-        <v>16.17029082610683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.02059616510039</v>
+      </c>
+      <c r="O23">
+        <v>31.84721987545517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.95793784267291</v>
+        <v>32.28054592538881</v>
       </c>
       <c r="C24">
-        <v>21.37519416583313</v>
+        <v>17.35380295857315</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.63686541079947</v>
+        <v>5.843693292062083</v>
       </c>
       <c r="F24">
-        <v>79.02520609680693</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>1.995917904355109</v>
+        <v>2.041479763530114</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>44.96579273234011</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.535342921227389</v>
+        <v>8.491140163283367</v>
       </c>
       <c r="M24">
-        <v>14.59071625342468</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.56174791908543</v>
+      </c>
+      <c r="O24">
+        <v>29.92709482017546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.61829022859382</v>
+        <v>28.97309030634196</v>
       </c>
       <c r="C25">
-        <v>18.91156809526693</v>
+        <v>15.63229603024802</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.17885175189193</v>
+        <v>5.861337386076947</v>
       </c>
       <c r="F25">
-        <v>70.22058075863016</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.032726907734038</v>
+        <v>2.063662011858248</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.34667440804364</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.619842016046598</v>
+        <v>7.955599239133323</v>
       </c>
       <c r="M25">
-        <v>12.92494419787414</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.14887949160569</v>
+      </c>
+      <c r="O25">
+        <v>27.94820400862228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.41216954528298</v>
+        <v>29.20867965419454</v>
       </c>
       <c r="C2">
-        <v>14.27956108085531</v>
+        <v>27.37675943932809</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.883668151440066</v>
+        <v>30.79911926389228</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.080249418612982</v>
+        <v>2.003386365067668</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.70182738310151</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.564489793053743</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.58676678925695</v>
+        <v>10.65647768194184</v>
       </c>
       <c r="O2">
-        <v>26.56392066222082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.69831071153473</v>
+        <v>27.01838482566479</v>
       </c>
       <c r="C3">
-        <v>13.3063536749098</v>
+        <v>25.2718846256994</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.904142132625345</v>
+        <v>28.37642901324865</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.091731807621727</v>
+        <v>2.019794458746673</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>20.68842332470809</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.301953347246137</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.88827005201479</v>
+        <v>10.98933455278732</v>
       </c>
       <c r="O3">
-        <v>25.66955754921173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.60728672592422</v>
+        <v>25.61882107921869</v>
       </c>
       <c r="C4">
-        <v>12.68004444767305</v>
+        <v>23.93240145834775</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.91920440226128</v>
+        <v>26.84340202893878</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.098924392128502</v>
+        <v>2.029911588516518</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>20.09111469184625</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.142287696347084</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.07612495100471</v>
+        <v>11.19598205015844</v>
       </c>
       <c r="O4">
-        <v>25.1417920345161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.15309610732525</v>
+        <v>25.0340744090581</v>
       </c>
       <c r="C5">
-        <v>12.41747075215445</v>
+        <v>23.37397751791166</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.925949209253738</v>
+        <v>26.20612987763298</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.101894374000534</v>
+        <v>2.034055021871486</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>19.85365540682469</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.077662327268124</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.15341851672427</v>
+        <v>11.28082177848354</v>
       </c>
       <c r="O5">
-        <v>24.9320890380213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.07710496618497</v>
+        <v>24.93608961562432</v>
       </c>
       <c r="C6">
-        <v>12.3734237086116</v>
+        <v>23.28047265506864</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.927105281924299</v>
+        <v>26.09952373205833</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.102389976537491</v>
+        <v>2.034744545261161</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>19.81457696099933</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.066959618583486</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.16629936475266</v>
+        <v>11.29494908483437</v>
       </c>
       <c r="O6">
-        <v>24.89759192091755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.60119992123404</v>
+        <v>25.61099414318013</v>
       </c>
       <c r="C7">
-        <v>12.67653318001262</v>
+        <v>23.92492216606183</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.91929293303512</v>
+        <v>26.83485972831813</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.098964284680777</v>
+        <v>2.029967372705586</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>20.08788850841771</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.141414278550165</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.07716428784091</v>
+        <v>11.19712360263658</v>
       </c>
       <c r="O7">
-        <v>25.13894218872482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.82932258854921</v>
+        <v>28.46439871217093</v>
       </c>
       <c r="C8">
-        <v>13.94989212581518</v>
+        <v>26.66029387856408</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.890198288356145</v>
+        <v>29.97249086058959</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.084180984775183</v>
+        <v>2.009041514718483</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.34701127636169</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.473679047892258</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.69019201074405</v>
+        <v>10.77080906052402</v>
       </c>
       <c r="O8">
-        <v>26.25109797777113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.11114637243998</v>
+        <v>33.66108254766914</v>
       </c>
       <c r="C9">
-        <v>16.22493527706405</v>
+        <v>31.69072837987102</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.8538733051695</v>
+        <v>35.82580492840739</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>2.056162301219374</v>
+        <v>1.967799497260775</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>24.03456503712896</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.135537348034257</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.95040908360903</v>
+        <v>9.950515926750656</v>
       </c>
       <c r="O9">
-        <v>28.60317695432486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.08270505030636</v>
+        <v>37.29752142511477</v>
       </c>
       <c r="C10">
-        <v>17.77104570923531</v>
+        <v>35.2535185174581</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.84129964603914</v>
+        <v>40.05371978345104</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847367</v>
       </c>
       <c r="G10">
-        <v>2.035920107773003</v>
+        <v>1.936409493723837</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>26.63967390927007</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.626496757857366</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.41472499472057</v>
+        <v>9.355286086568185</v>
       </c>
       <c r="O10">
-        <v>30.4405664029452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.38784764432196</v>
+        <v>38.93131612344214</v>
       </c>
       <c r="C11">
-        <v>18.44984271261926</v>
+        <v>36.8672411773526</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.839017428750893</v>
+        <v>41.99652402606483</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232857</v>
       </c>
       <c r="G11">
-        <v>2.02672093520489</v>
+        <v>1.921591608600081</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>27.91087086774198</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.850839838839256</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.17186332419177</v>
+        <v>9.086287409471518</v>
       </c>
       <c r="O11">
-        <v>31.30238367765813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.87578769312844</v>
+        <v>39.54922955040354</v>
       </c>
       <c r="C12">
-        <v>18.70361657477886</v>
+        <v>37.47983805471076</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.838683058285573</v>
+        <v>42.7392050777667</v>
       </c>
       <c r="F12">
         <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>2.023232420621746</v>
+        <v>1.915867940613768</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>28.39845838375532</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.935958067003641</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.07994385518564</v>
+        <v>8.984782872704367</v>
       </c>
       <c r="O12">
-        <v>31.63274975579039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.77097337597061</v>
+        <v>39.41614307240101</v>
       </c>
       <c r="C13">
-        <v>18.64910285174565</v>
+        <v>37.34778800814968</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.838730893044086</v>
+        <v>42.57886258952843</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.023984066729099</v>
+        <v>1.917106317229276</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>28.29312813066943</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.917618481333482</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.09973940784929</v>
+        <v>9.006624845962149</v>
       </c>
       <c r="O13">
-        <v>31.56141546673841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.42811416621996</v>
+        <v>38.98215278691303</v>
       </c>
       <c r="C14">
-        <v>18.47078480767487</v>
+        <v>36.91759219479356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.838979081822933</v>
+        <v>42.05745580888208</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503951</v>
       </c>
       <c r="G14">
-        <v>2.026434072339729</v>
+        <v>1.92112321373521</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>27.95084518634332</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.857839083685041</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.16430052287186</v>
+        <v>9.077928378778148</v>
       </c>
       <c r="O14">
-        <v>31.32948068969812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.21729755907054</v>
+        <v>38.71629688646268</v>
       </c>
       <c r="C15">
-        <v>18.36114202957017</v>
+        <v>36.65437058285168</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.83920123550161</v>
+        <v>41.73913673264007</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154521</v>
       </c>
       <c r="G15">
-        <v>2.027933919404047</v>
+        <v>1.923567804332327</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>27.74207398699547</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.821244830446471</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.20385006116978</v>
+        <v>9.121655581844026</v>
       </c>
       <c r="O15">
-        <v>31.18794669228275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.99650654893345</v>
+        <v>37.19050884953642</v>
       </c>
       <c r="C16">
-        <v>17.72621207204406</v>
+        <v>35.14811547685262</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.841520909466543</v>
+        <v>39.9274721678995</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
       <c r="G16">
-        <v>2.036520960665968</v>
+        <v>1.937364287769578</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>26.5573321242658</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.611856855749698</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.43060705359158</v>
+        <v>9.372908132859678</v>
       </c>
       <c r="O16">
-        <v>30.38478906343631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.23592145921935</v>
+        <v>36.25060469645567</v>
       </c>
       <c r="C17">
-        <v>17.33058974852805</v>
+        <v>34.22385012322879</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.843848389630323</v>
+        <v>38.82364051336987</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.041786960426214</v>
+        <v>1.945668329026953</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.8390417872976</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.483669070653949</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.56987546880827</v>
+        <v>9.527542470704333</v>
       </c>
       <c r="O17">
-        <v>29.89890094723284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.79403464056752</v>
+        <v>35.7079124429883</v>
       </c>
       <c r="C18">
-        <v>17.10071136758181</v>
+        <v>33.69139041544453</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.845508299618889</v>
+        <v>38.19026813686423</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.04481710690273</v>
+        <v>1.950396517699624</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.42837194615895</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.41003089643678</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.6500608757831</v>
+        <v>9.616640469260194</v>
       </c>
       <c r="O18">
-        <v>29.62185439568265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.64364892066479</v>
+        <v>35.52375207465185</v>
       </c>
       <c r="C19">
-        <v>17.02247163528241</v>
+        <v>33.51089823848137</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.846124468714674</v>
+        <v>37.97597430946388</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.045843460204059</v>
+        <v>1.9519900458877</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.28969576291561</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.385113799209714</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67722650971506</v>
+        <v>9.646832757239467</v>
       </c>
       <c r="O19">
-        <v>29.52846045190405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.31734153007044</v>
+        <v>36.35086111078805</v>
       </c>
       <c r="C20">
-        <v>17.37294350434785</v>
+        <v>34.32231149682827</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.843567137901977</v>
+        <v>38.94096170469061</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.041226295761715</v>
+        <v>1.944789545664381</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.91523571919646</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.497305271064871</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.55504214820567</v>
+        <v>9.511064754539879</v>
       </c>
       <c r="O20">
-        <v>29.9503720329345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.52898723396207</v>
+        <v>39.10962644409356</v>
       </c>
       <c r="C21">
-        <v>18.52324770173383</v>
+        <v>37.04388589096859</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.838891497919408</v>
+        <v>42.21037562064852</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329777</v>
       </c>
       <c r="G21">
-        <v>2.025714636453708</v>
+        <v>1.919946741264474</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>28.05119209386733</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.875393017983486</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.14533665420265</v>
+        <v>9.056973672365954</v>
       </c>
       <c r="O21">
-        <v>31.39749389285235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.93801463920004</v>
+        <v>40.90971739277059</v>
       </c>
       <c r="C22">
-        <v>19.25611525380863</v>
+        <v>38.83325147323288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.838943860310045</v>
+        <v>44.39095111604168</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>2.015544173816068</v>
+        <v>1.903029604291207</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>29.4850194372728</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.123477924785469</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.87781136126762</v>
+        <v>8.762434861153151</v>
       </c>
       <c r="O22">
-        <v>32.36687527571817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.1891648632707</v>
+        <v>39.94833153589306</v>
       </c>
       <c r="C23">
-        <v>18.86660638457446</v>
+        <v>37.87619484542515</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.838618607176226</v>
+        <v>43.22133429494991</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.020977664244712</v>
+        <v>1.912135689272273</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>28.71535300278812</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.990968276195796</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.02059616510039</v>
+        <v>8.919364749433454</v>
       </c>
       <c r="O23">
-        <v>31.84721987545517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.28054592538881</v>
+        <v>36.30554259362272</v>
       </c>
       <c r="C24">
-        <v>17.35380295857315</v>
+        <v>34.2778006751019</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.843693292062083</v>
+        <v>38.88791724120246</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.85121910575587</v>
       </c>
       <c r="G24">
-        <v>2.041479763530114</v>
+        <v>1.945186984157409</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.88078147932124</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.491140163283367</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.56174791908543</v>
+        <v>9.518513723620359</v>
       </c>
       <c r="O24">
-        <v>29.92709482017546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.97309030634196</v>
+        <v>32.29237934597168</v>
       </c>
       <c r="C25">
-        <v>15.63229603024802</v>
+        <v>30.35925924104836</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.861337386076947</v>
+        <v>34.26461995603223</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>2.063662011858248</v>
+        <v>1.979064947470575</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>23.28057155345163</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.955599239133323</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.14887949160569</v>
+        <v>10.17103890853632</v>
       </c>
       <c r="O25">
-        <v>27.94820400862228</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.20867965419454</v>
+        <v>17.47123200046431</v>
       </c>
       <c r="C2">
-        <v>27.37675943932809</v>
+        <v>14.98209269522088</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.79911926389228</v>
+        <v>16.50058039820641</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.003386365067668</v>
+        <v>3.616019757334481</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.70182738310151</v>
+        <v>22.53030556941171</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.65647768194184</v>
+        <v>16.77605563675621</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.01838482566479</v>
+        <v>16.67661171436607</v>
       </c>
       <c r="C3">
-        <v>25.2718846256994</v>
+        <v>14.09459930748019</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.37642901324865</v>
+        <v>15.55601056631372</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.019794458746673</v>
+        <v>3.621022851344635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.68842332470809</v>
+        <v>22.41029112157617</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.98933455278732</v>
+        <v>16.85416915921614</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.61882107921869</v>
+        <v>16.17490364407455</v>
       </c>
       <c r="C4">
-        <v>23.93240145834775</v>
+        <v>13.52498877252832</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.84340202893878</v>
+        <v>14.95233066869531</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.029911588516518</v>
+        <v>3.624241908211719</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.09111469184625</v>
+        <v>22.34477962614002</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.19598205015844</v>
+        <v>16.90415596332716</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.0340744090581</v>
+        <v>15.96730848111109</v>
       </c>
       <c r="C5">
-        <v>23.37397751791166</v>
+        <v>13.28687653984742</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.20612987763298</v>
+        <v>14.70063376233248</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.034055021871486</v>
+        <v>3.625590893867343</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.85365540682469</v>
+        <v>22.32014309014241</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.28082177848354</v>
+        <v>16.92503616239311</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.93608961562432</v>
+        <v>15.93265791655571</v>
       </c>
       <c r="C6">
-        <v>23.28047265506864</v>
+        <v>13.24698356458121</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.09952373205833</v>
+        <v>14.65850481261952</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.034744545261161</v>
+        <v>3.625817144021434</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.81457696099933</v>
+        <v>22.31617665501722</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.29494908483437</v>
+        <v>16.92853414694799</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.61099414318013</v>
+        <v>16.17211621335212</v>
       </c>
       <c r="C7">
-        <v>23.92492216606183</v>
+        <v>13.52180144654631</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.83485972831813</v>
+        <v>14.94895884913696</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.029967372705586</v>
+        <v>3.624259950247846</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.08788850841771</v>
+        <v>22.34443902671514</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.19712360263658</v>
+        <v>16.90443549393548</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.46439871217093</v>
+        <v>17.20029587808189</v>
       </c>
       <c r="C8">
-        <v>26.66029387856408</v>
+        <v>14.68132451820364</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.97249086058959</v>
+        <v>16.17995969068069</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344765</v>
       </c>
       <c r="G8">
-        <v>2.009041514718483</v>
+        <v>3.617714403877476</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.34701127636169</v>
+        <v>22.48723054006954</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.77080906052402</v>
+        <v>16.80256955054652</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.66108254766914</v>
+        <v>19.09472445415976</v>
       </c>
       <c r="C9">
-        <v>31.69072837987102</v>
+        <v>16.7518879634464</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.82580492840739</v>
+        <v>18.49033722141196</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>1.967799497260775</v>
+        <v>3.606037127601787</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.03456503712896</v>
+        <v>22.83180152499477</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.950515926750656</v>
+        <v>16.61882838767211</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.29752142511477</v>
+        <v>20.39853215296211</v>
       </c>
       <c r="C10">
-        <v>35.2535185174581</v>
+        <v>18.14172649495072</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.05371978345104</v>
+        <v>20.16125381810702</v>
       </c>
       <c r="F10">
-        <v>37.72874519847367</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.936409493723837</v>
+        <v>3.598151502938538</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.63967390927007</v>
+        <v>23.12362854162946</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.355286086568185</v>
+        <v>16.49352931191562</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.93131612344214</v>
+        <v>20.97032126172734</v>
       </c>
       <c r="C11">
-        <v>36.8672411773526</v>
+        <v>18.74442890357734</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.99652402606483</v>
+        <v>20.88015517379789</v>
       </c>
       <c r="F11">
-        <v>39.14805722232857</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.921591608600081</v>
+        <v>3.594712023132533</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.91087086774198</v>
+        <v>23.26456624362861</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.086287409471518</v>
+        <v>16.43861864165932</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.54922955040354</v>
+        <v>21.18362921188057</v>
       </c>
       <c r="C12">
-        <v>37.47983805471076</v>
+        <v>18.96834821035632</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.7392050777667</v>
+        <v>21.14650349627315</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.915867940613768</v>
+        <v>3.593430610018536</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.39845838375532</v>
+        <v>23.31908901199804</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.984782872704367</v>
+        <v>16.41812482395865</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.41614307240101</v>
+        <v>21.13783470375936</v>
       </c>
       <c r="C13">
-        <v>37.34778800814968</v>
+        <v>18.92031574462777</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.57886258952843</v>
+        <v>21.08940165247625</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.917106317229276</v>
+        <v>3.593705652556742</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.29312813066943</v>
+        <v>23.30729570599492</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.006624845962149</v>
+        <v>16.42252521668451</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.98215278691303</v>
+        <v>20.98793546646867</v>
       </c>
       <c r="C14">
-        <v>36.91759219479356</v>
+        <v>18.7629375813322</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.05745580888208</v>
+        <v>20.90218549736426</v>
       </c>
       <c r="F14">
-        <v>39.19167637503951</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.92112321373521</v>
+        <v>3.594606179919362</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.95084518634332</v>
+        <v>23.26902891106687</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.077928378778148</v>
+        <v>16.43692660090638</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.71629688646268</v>
+        <v>20.89569497100728</v>
       </c>
       <c r="C15">
-        <v>36.65437058285168</v>
+        <v>18.66597590351377</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.73913673264007</v>
+        <v>20.78674515519339</v>
       </c>
       <c r="F15">
-        <v>38.96319309154521</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>1.923567804332327</v>
+        <v>3.595160513414867</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.74207398699547</v>
+        <v>23.24573874572252</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.121655581844026</v>
+        <v>16.44578687052069</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.19050884953642</v>
+        <v>20.36072195204823</v>
       </c>
       <c r="C16">
-        <v>35.14811547685262</v>
+        <v>18.10173825351464</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.9274721678995</v>
+        <v>20.11344628155222</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.937364287769578</v>
+        <v>3.598379236662323</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.5573321242658</v>
+        <v>23.11458062022518</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.372908132859678</v>
+        <v>16.49715982152554</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.25060469645567</v>
+        <v>20.02695776282874</v>
       </c>
       <c r="C17">
-        <v>34.22385012322879</v>
+        <v>17.74798011609915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.82364051336987</v>
+        <v>19.68987466591927</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.945668329026953</v>
+        <v>3.600391514381927</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.8390417872976</v>
+        <v>23.03619927796035</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.527542470704333</v>
+        <v>16.52920989091427</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.7079124429883</v>
+        <v>19.83298601304421</v>
       </c>
       <c r="C18">
-        <v>33.69139041544453</v>
+        <v>17.54172972540378</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.19026813686423</v>
+        <v>19.4423663988601</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>1.950396517699624</v>
+        <v>3.60156284044497</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.42837194615895</v>
+        <v>22.99188837559203</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.616640469260194</v>
+        <v>16.54784085991455</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.52375207465185</v>
+        <v>19.76697210798594</v>
       </c>
       <c r="C19">
-        <v>33.51089823848137</v>
+        <v>17.47142194486969</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.97597430946388</v>
+        <v>19.35789650991839</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>1.9519900458877</v>
+        <v>3.601961827679677</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.28969576291561</v>
+        <v>22.97701873923139</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.646832757239467</v>
+        <v>16.55418277598994</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.35086111078805</v>
+        <v>20.06269563150063</v>
       </c>
       <c r="C20">
-        <v>34.32231149682827</v>
+        <v>17.78592630121976</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.94096170469061</v>
+        <v>19.73536596341289</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.944789545664381</v>
+        <v>3.600175865059543</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.91523571919646</v>
+        <v>23.04446337501085</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.511064754539879</v>
+        <v>16.52577776221428</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.10962644409356</v>
+        <v>21.03205286925262</v>
       </c>
       <c r="C21">
-        <v>37.04388589096859</v>
+        <v>18.80928078319695</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.21037562064852</v>
+        <v>20.95733478031904</v>
       </c>
       <c r="F21">
-        <v>39.30090300329777</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.919946741264474</v>
+        <v>3.594341103698035</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.05119209386733</v>
+        <v>23.28023771870718</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.056973672365954</v>
+        <v>16.43268843754778</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.90971739277059</v>
+        <v>21.64678446842433</v>
       </c>
       <c r="C22">
-        <v>38.83325147323288</v>
+        <v>19.46554232198978</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>44.39095111604168</v>
+        <v>21.72168473016926</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.903029604291207</v>
+        <v>3.590650312042504</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.4850194372728</v>
+        <v>23.44103561952009</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.762434861153151</v>
+        <v>16.3735955693089</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.94833153589306</v>
+        <v>21.32045427464691</v>
       </c>
       <c r="C23">
-        <v>37.87619484542515</v>
+        <v>19.11173196272962</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.22133429494991</v>
+        <v>21.31685944640813</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.912135689272273</v>
+        <v>3.592609009071165</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.71535300278812</v>
+        <v>23.35460989344616</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.919364749433454</v>
+        <v>16.40497495570403</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.30554259362272</v>
+        <v>20.04654502767191</v>
       </c>
       <c r="C24">
-        <v>34.2778006751019</v>
+        <v>17.76877976578864</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.88791724120246</v>
+        <v>19.7148117829744</v>
       </c>
       <c r="F24">
-        <v>36.85121910575587</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.945186984157409</v>
+        <v>3.600273315123081</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.88078147932124</v>
+        <v>23.04072483394773</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.518513723620359</v>
+        <v>16.52732878915311</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.29237934597168</v>
+        <v>18.59683088616108</v>
       </c>
       <c r="C25">
-        <v>30.35925924104836</v>
+        <v>16.21439311147944</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.26461995603223</v>
+        <v>17.8381906676167</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>1.979064947470575</v>
+        <v>3.609073410736226</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.28057155345163</v>
+        <v>22.73173117267301</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.17103890853632</v>
+        <v>16.66682776032881</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.47123200046431</v>
+        <v>29.20867965419461</v>
       </c>
       <c r="C2">
-        <v>14.98209269522088</v>
+        <v>27.3767594393281</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.50058039820641</v>
+        <v>30.79911926389223</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.616019757334481</v>
+        <v>2.003386365067666</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.53030556941171</v>
+        <v>21.7018273831016</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.77605563675621</v>
+        <v>10.65647768194192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.67661171436607</v>
+        <v>27.01838482566473</v>
       </c>
       <c r="C3">
-        <v>14.09459930748019</v>
+        <v>25.27188462569942</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.55601056631372</v>
+        <v>28.37642901324856</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.621022851344635</v>
+        <v>2.019794458746672</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.41029112157617</v>
+        <v>20.68842332470819</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.85416915921614</v>
+        <v>10.98933455278742</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.17490364407455</v>
+        <v>25.61882107921872</v>
       </c>
       <c r="C4">
-        <v>13.52498877252832</v>
+        <v>23.93240145834772</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.95233066869531</v>
+        <v>26.84340202893879</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.624241908211719</v>
+        <v>2.029911588516782</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.34477962614002</v>
+        <v>20.09111469184634</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.90415596332716</v>
+        <v>11.19598205015849</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.96730848111109</v>
+        <v>25.03407440905818</v>
       </c>
       <c r="C5">
-        <v>13.28687653984742</v>
+        <v>23.37397751791159</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.70063376233248</v>
+        <v>26.20612987763298</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.625590893867343</v>
+        <v>2.034055021871618</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.32014309014241</v>
+        <v>19.85365540682471</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.92503616239311</v>
+        <v>11.28082177848355</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.93265791655571</v>
+        <v>24.93608961562443</v>
       </c>
       <c r="C6">
-        <v>13.24698356458121</v>
+        <v>23.28047265506877</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.65850481261952</v>
+        <v>26.09952373205834</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.625817144021434</v>
+        <v>2.034744545261427</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.31617665501722</v>
+        <v>19.81457696099935</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.92853414694799</v>
+        <v>11.29494908483435</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.17211621335212</v>
+        <v>25.61099414318006</v>
       </c>
       <c r="C7">
-        <v>13.52180144654631</v>
+        <v>23.9249221660618</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.94895884913696</v>
+        <v>26.83485972831814</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.624259950247846</v>
+        <v>2.029967372705721</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.34443902671514</v>
+        <v>20.08788850841779</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.90443549393548</v>
+        <v>11.19712360263659</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.20029587808189</v>
+        <v>28.46439871217105</v>
       </c>
       <c r="C8">
-        <v>14.68132451820364</v>
+        <v>26.66029387856438</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.17995969068069</v>
+        <v>29.97249086058971</v>
       </c>
       <c r="F8">
-        <v>16.53996406344765</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.617714403877476</v>
+        <v>2.009041514718348</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.48723054006954</v>
+        <v>21.34701127636173</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.80256955054652</v>
+        <v>10.77080906052385</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.09472445415976</v>
+        <v>33.66108254766907</v>
       </c>
       <c r="C9">
-        <v>16.7518879634464</v>
+        <v>31.69072837987085</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.49033722141196</v>
+        <v>35.82580492840732</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.606037127601787</v>
+        <v>1.967799497260777</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.83180152499477</v>
+        <v>24.03456503712901</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.61882838767211</v>
+        <v>9.950515926750846</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.39853215296211</v>
+        <v>37.2975214251147</v>
       </c>
       <c r="C10">
-        <v>18.14172649495072</v>
+        <v>35.25351851745817</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.16125381810702</v>
+        <v>40.053719783451</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847366</v>
       </c>
       <c r="G10">
-        <v>3.598151502938538</v>
+        <v>1.936409493723964</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.12362854162946</v>
+        <v>26.63967390927006</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.49352931191562</v>
+        <v>9.355286086568221</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.97032126172734</v>
+        <v>38.93131612344215</v>
       </c>
       <c r="C11">
-        <v>18.74442890357734</v>
+        <v>36.86724117735256</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.88015517379789</v>
+        <v>41.99652402606476</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232862</v>
       </c>
       <c r="G11">
-        <v>3.594712023132533</v>
+        <v>1.921591608600224</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.26456624362861</v>
+        <v>27.91087086774199</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.43861864165932</v>
+        <v>9.086287409471591</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.18362921188057</v>
+        <v>39.54922955040334</v>
       </c>
       <c r="C12">
-        <v>18.96834821035632</v>
+        <v>37.4798380547107</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.14650349627315</v>
+        <v>42.73920507776658</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.593430610018536</v>
+        <v>1.915867940613762</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.31908901199804</v>
+        <v>28.39845838375509</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.41812482395865</v>
+        <v>8.984782872704491</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.13783470375936</v>
+        <v>39.41614307240096</v>
       </c>
       <c r="C13">
-        <v>18.92031574462777</v>
+        <v>37.34778800814968</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.08940165247625</v>
+        <v>42.57886258952837</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.5626640326014</v>
       </c>
       <c r="G13">
-        <v>3.593705652556742</v>
+        <v>1.917106317229406</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.30729570599492</v>
+        <v>28.29312813066944</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.42252521668451</v>
+        <v>9.006624845962195</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.98793546646867</v>
+        <v>38.98215278691303</v>
       </c>
       <c r="C14">
-        <v>18.7629375813322</v>
+        <v>36.91759219479356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.90218549736426</v>
+        <v>42.05745580888215</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503949</v>
       </c>
       <c r="G14">
-        <v>3.594606179919362</v>
+        <v>1.921123213735221</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.26902891106687</v>
+        <v>27.95084518634334</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.43692660090638</v>
+        <v>9.077928378778124</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.89569497100728</v>
+        <v>38.71629688646247</v>
       </c>
       <c r="C15">
-        <v>18.66597590351377</v>
+        <v>36.65437058285148</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.78674515519339</v>
+        <v>41.73913673264</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.595160513414867</v>
+        <v>1.923567804332325</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.24573874572252</v>
+        <v>27.74207398699527</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.44578687052069</v>
+        <v>9.121655581844189</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.36072195204823</v>
+        <v>37.19050884953647</v>
       </c>
       <c r="C16">
-        <v>18.10173825351464</v>
+        <v>35.14811547685267</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.11344628155222</v>
+        <v>39.92747216789951</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028805</v>
       </c>
       <c r="G16">
-        <v>3.598379236662323</v>
+        <v>1.93736428776971</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.11458062022518</v>
+        <v>26.55733212426584</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.49715982152554</v>
+        <v>9.372908132859653</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.02695776282874</v>
+        <v>36.25060469645567</v>
       </c>
       <c r="C17">
-        <v>17.74798011609915</v>
+        <v>34.22385012322863</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.68987466591927</v>
+        <v>38.82364051336977</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.600391514381927</v>
+        <v>1.945668329027078</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.03619927796035</v>
+        <v>25.83904178729758</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.52920989091427</v>
+        <v>9.527542470704359</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.83298601304421</v>
+        <v>35.70791244298855</v>
       </c>
       <c r="C18">
-        <v>17.54172972540378</v>
+        <v>33.69139041544468</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.4423663988601</v>
+        <v>38.19026813686444</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.60156284044497</v>
+        <v>1.950396517699499</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.99188837559203</v>
+        <v>25.42837194615921</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.54784085991455</v>
+        <v>9.616640469260144</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.76697210798594</v>
+        <v>35.52375207465185</v>
       </c>
       <c r="C19">
-        <v>17.47142194486969</v>
+        <v>33.51089823848136</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.35789650991839</v>
+        <v>37.97597430946386</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
-        <v>3.601961827679677</v>
+        <v>1.951990045887962</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.97701873923139</v>
+        <v>25.28969576291564</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.55418277598994</v>
+        <v>9.646832757239505</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.06269563150063</v>
+        <v>36.35086111078787</v>
       </c>
       <c r="C20">
-        <v>17.78592630121976</v>
+        <v>34.32231149682819</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.73536596341289</v>
+        <v>38.9409617046906</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>3.600175865059543</v>
+        <v>1.944789545664249</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.04446337501085</v>
+        <v>25.91523571919636</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.52577776221428</v>
+        <v>9.511064754539964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.03205286925262</v>
+        <v>39.10962644409349</v>
       </c>
       <c r="C21">
-        <v>18.80928078319695</v>
+        <v>37.0438858909686</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.95733478031904</v>
+        <v>42.21037562064843</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329778</v>
       </c>
       <c r="G21">
-        <v>3.594341103698035</v>
+        <v>1.919946741264468</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.28023771870718</v>
+        <v>28.05119209386728</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.43268843754778</v>
+        <v>9.056973672365984</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.64678446842433</v>
+        <v>40.90971739277056</v>
       </c>
       <c r="C22">
-        <v>19.46554232198978</v>
+        <v>38.83325147323292</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.72168473016926</v>
+        <v>44.39095111604148</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.590650312042504</v>
+        <v>1.903029604291073</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.44103561952009</v>
+        <v>29.48501943727279</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.3735955693089</v>
+        <v>8.762434861153189</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.32045427464691</v>
+        <v>39.9483315358931</v>
       </c>
       <c r="C23">
-        <v>19.11173196272962</v>
+        <v>37.8761948454252</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.31685944640813</v>
+        <v>43.22133429495004</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.592609009071165</v>
+        <v>1.912135689272537</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.35460989344616</v>
+        <v>28.71535300278819</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.40497495570403</v>
+        <v>8.919364749433502</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.04654502767191</v>
+        <v>36.30554259362268</v>
       </c>
       <c r="C24">
-        <v>17.76877976578864</v>
+        <v>34.27780067510175</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.7148117829744</v>
+        <v>38.88791724120237</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>3.600273315123081</v>
+        <v>1.945186984157409</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.04072483394773</v>
+        <v>25.88078147932118</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.52732878915311</v>
+        <v>9.518513723620352</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.59683088616108</v>
+        <v>32.29237934597172</v>
       </c>
       <c r="C25">
-        <v>16.21439311147944</v>
+        <v>30.3592592410483</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.8381906676167</v>
+        <v>34.26461995603225</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459127051</v>
       </c>
       <c r="G25">
-        <v>3.609073410736226</v>
+        <v>1.979064947470577</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.73173117267301</v>
+        <v>23.28057155345172</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.66682776032881</v>
+        <v>10.17103890853643</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.20867965419461</v>
+        <v>19.30072487753553</v>
       </c>
       <c r="C2">
-        <v>27.3767594393281</v>
+        <v>12.19728108364479</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.79911926389223</v>
+        <v>9.244798207172478</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.003386365067666</v>
+        <v>18.83982165650047</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.775745290054195</v>
       </c>
       <c r="I2">
-        <v>21.7018273831016</v>
+        <v>2.738335411312052</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.951289948354269</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.7741769329387</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.65647768194192</v>
+        <v>7.875097121863786</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.54632727789914</v>
+      </c>
+      <c r="Q2">
+        <v>12.59615272341875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.01838482566473</v>
+        <v>18.03246784103395</v>
       </c>
       <c r="C3">
-        <v>25.27188462569942</v>
+        <v>11.81036406076875</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.37642901324856</v>
+        <v>9.113991997804524</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.019794458746672</v>
+        <v>18.35867804365623</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.61068817159803</v>
       </c>
       <c r="I3">
-        <v>20.68842332470819</v>
+        <v>2.615039381602546</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.961037575006532</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.87978655367502</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.98933455278742</v>
+        <v>7.588034787498914</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.53883277755069</v>
+      </c>
+      <c r="Q3">
+        <v>12.51134460647386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.61882107921872</v>
+        <v>17.20312638759308</v>
       </c>
       <c r="C4">
-        <v>23.93240145834772</v>
+        <v>11.56678511115895</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.84340202893879</v>
+        <v>9.031617175647828</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.029911588516782</v>
+        <v>18.06703044513018</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.617010719672691</v>
       </c>
       <c r="I4">
-        <v>20.09111469184634</v>
+        <v>2.537129221102507</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.96972446355641</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.94859044227327</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.19598205015849</v>
+        <v>7.406310679560896</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.53705065896772</v>
+      </c>
+      <c r="Q4">
+        <v>12.46446798960078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.03407440905818</v>
+        <v>16.8473014398039</v>
       </c>
       <c r="C5">
-        <v>23.37397751791159</v>
+        <v>11.47134007040069</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.20612987763298</v>
+        <v>8.995846704853696</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.034055021871618</v>
+        <v>17.93787433368064</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.662242686110591</v>
       </c>
       <c r="I5">
-        <v>19.85365540682471</v>
+        <v>2.505528759498848</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.972238446441407</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.97379362195722</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.28082177848355</v>
+        <v>7.331427389788596</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.53830851077426</v>
+      </c>
+      <c r="Q5">
+        <v>12.44220477838926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.93608961562443</v>
+        <v>16.78122641728321</v>
       </c>
       <c r="C6">
-        <v>23.28047265506877</v>
+        <v>11.46184526017662</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.09952373205834</v>
+        <v>8.98780346176288</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.034744545261427</v>
+        <v>17.90255863194852</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.670170290458853</v>
       </c>
       <c r="I6">
-        <v>19.81457696099935</v>
+        <v>2.501333943886737</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.970630280938491</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.97339156817321</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.29494908483435</v>
+        <v>7.3194888816129</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.54014184154422</v>
+      </c>
+      <c r="Q6">
+        <v>12.43314831830355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.61099414318006</v>
+        <v>17.18181077354255</v>
       </c>
       <c r="C7">
-        <v>23.9249221660618</v>
+        <v>11.58295951145422</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.83485972831814</v>
+        <v>9.025523002034822</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.029967372705721</v>
+        <v>18.02753106858703</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.618569528636879</v>
       </c>
       <c r="I7">
-        <v>20.08788850841779</v>
+        <v>2.539285915726933</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.964123904859656</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.9362380080153</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.19712360263659</v>
+        <v>7.406854431253422</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.54145282315543</v>
+      </c>
+      <c r="Q7">
+        <v>12.44935687393432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.46439871217105</v>
+        <v>18.85369746564829</v>
       </c>
       <c r="C8">
-        <v>26.66029387856438</v>
+        <v>12.0876716832731</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.97249086058971</v>
+        <v>9.192923474782223</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.009041514718348</v>
+        <v>18.6248418229162</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.718477217982577</v>
       </c>
       <c r="I8">
-        <v>21.34701127636173</v>
+        <v>2.69912341633279</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.946670084113951</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.79296559120033</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.77080906052385</v>
+        <v>7.779286868011538</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.54923332552273</v>
+      </c>
+      <c r="Q8">
+        <v>12.54645696412707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.66108254766907</v>
+        <v>21.75900631013198</v>
       </c>
       <c r="C9">
-        <v>31.69072837987085</v>
+        <v>12.99670145888167</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.82580492840732</v>
+        <v>9.514013116551709</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>1.967799497260777</v>
+        <v>19.88485166156137</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.110515949991214</v>
       </c>
       <c r="I9">
-        <v>24.03456503712901</v>
+        <v>2.992142986098546</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.9446515403423</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.56749075042937</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.950515926750846</v>
+        <v>8.460562808063983</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.57914773406815</v>
+      </c>
+      <c r="Q9">
+        <v>12.80508969163818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37.2975214251147</v>
+        <v>23.58954969350194</v>
       </c>
       <c r="C10">
-        <v>35.25351851745817</v>
+        <v>13.68825191260861</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>40.053719783451</v>
+        <v>9.61936911362649</v>
       </c>
       <c r="F10">
-        <v>37.72874519847366</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>1.936409493723964</v>
+        <v>20.6349903981971</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.370536920334353</v>
       </c>
       <c r="I10">
-        <v>26.63967390927006</v>
+        <v>3.19384112233302</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.927944347896111</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.36238407745855</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.355286086568221</v>
+        <v>8.796336045645056</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.64219684881997</v>
+      </c>
+      <c r="Q10">
+        <v>12.94500838866729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.93131612344215</v>
+        <v>23.86693213325744</v>
       </c>
       <c r="C11">
-        <v>36.86724117735256</v>
+        <v>14.4632679963466</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>41.99652402606476</v>
+        <v>8.808014886964601</v>
       </c>
       <c r="F11">
-        <v>39.14805722232862</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.921591608600224</v>
+        <v>19.4948148086733</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.134365589075672</v>
       </c>
       <c r="I11">
-        <v>27.91087086774199</v>
+        <v>3.247759656662508</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.680015818888132</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.79062349508334</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.086287409471591</v>
+        <v>7.820901366209005</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.90199215722714</v>
+      </c>
+      <c r="Q11">
+        <v>12.38752131747401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.54922955040334</v>
+        <v>23.74636793641575</v>
       </c>
       <c r="C12">
-        <v>37.4798380547107</v>
+        <v>14.9674607790403</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>42.73920507776658</v>
+        <v>8.36332375713336</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.915867940613762</v>
+        <v>18.40431279920461</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.321876444104842</v>
       </c>
       <c r="I12">
-        <v>28.39845838375509</v>
+        <v>3.250985523797</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.48032059366312</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.38880665270332</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.984782872704491</v>
+        <v>6.962542532590787</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>13.11455966635543</v>
+      </c>
+      <c r="Q12">
+        <v>11.90152552383914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>39.41614307240096</v>
+        <v>23.2899397025218</v>
       </c>
       <c r="C13">
-        <v>37.34778800814968</v>
+        <v>15.3241437855575</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>42.57886258952837</v>
+        <v>8.199112571766117</v>
       </c>
       <c r="F13">
-        <v>39.5626640326014</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>1.917106317229406</v>
+        <v>17.21074181034133</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.607899321933451</v>
       </c>
       <c r="I13">
-        <v>28.29312813066944</v>
+        <v>3.218993828996092</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.297135384060168</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.07888659008201</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.006624845962195</v>
+        <v>6.149665163628787</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>13.30608371846835</v>
+      </c>
+      <c r="Q13">
+        <v>11.41630495893942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.98215278691303</v>
+        <v>22.80792790091538</v>
       </c>
       <c r="C14">
-        <v>36.91759219479356</v>
+        <v>15.51605487743687</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>42.05745580888215</v>
+        <v>8.258125110087876</v>
       </c>
       <c r="F14">
-        <v>39.19167637503949</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>1.921123213735221</v>
+        <v>16.31156235921866</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.54039508258811</v>
       </c>
       <c r="I14">
-        <v>27.95084518634334</v>
+        <v>3.181840711257623</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.176123191755543</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.90838615785067</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.077928378778124</v>
+        <v>5.623880496156673</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>13.43233782112402</v>
+      </c>
+      <c r="Q14">
+        <v>11.07474206362907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.71629688646247</v>
+        <v>22.6115971042927</v>
       </c>
       <c r="C15">
-        <v>36.65437058285148</v>
+        <v>15.53671230813246</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>41.73913673264</v>
+        <v>8.293802255702925</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>1.923567804332325</v>
+        <v>16.05968540208737</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.753432946044145</v>
       </c>
       <c r="I15">
-        <v>27.74207398699527</v>
+        <v>3.166089049206684</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.148940172568678</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.88172571472849</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.121655581844189</v>
+        <v>5.502217581117629</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>13.45869185077775</v>
+      </c>
+      <c r="Q15">
+        <v>10.98833207244869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>37.19050884953647</v>
+        <v>21.91231682863943</v>
       </c>
       <c r="C16">
-        <v>35.14811547685267</v>
+        <v>15.20042498646639</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>39.92747216789951</v>
+        <v>8.268177903401764</v>
       </c>
       <c r="F16">
-        <v>37.63463543028805</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>1.93736428776971</v>
+        <v>15.90529072165983</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.492010004796524</v>
       </c>
       <c r="I16">
-        <v>26.55733212426584</v>
+        <v>3.08788665850501</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.190100535113995</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.03281033967937</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.372908132859653</v>
+        <v>5.494771438490782</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>13.38353270316219</v>
+      </c>
+      <c r="Q16">
+        <v>11.0123324512556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>36.25060469645567</v>
+        <v>21.63332085511235</v>
       </c>
       <c r="C17">
-        <v>34.22385012322863</v>
+        <v>14.83278227196086</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>38.82364051336977</v>
+        <v>8.189756673258</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>1.945668329027078</v>
+        <v>16.27856121945263</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.749069460346467</v>
       </c>
       <c r="I17">
-        <v>25.83904178729758</v>
+        <v>3.047744275838076</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.285608018397671</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.23409168980602</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.527542470704359</v>
+        <v>5.760423246958092</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>13.25990660487748</v>
+      </c>
+      <c r="Q17">
+        <v>11.21284585653224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.70791244298855</v>
+        <v>21.70775083974059</v>
       </c>
       <c r="C18">
-        <v>33.69139041544468</v>
+        <v>14.38981883365574</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>38.19026813686444</v>
+        <v>8.212899552704119</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>1.950396517699499</v>
+        <v>17.16911694241123</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.547334002525643</v>
       </c>
       <c r="I18">
-        <v>25.42837194615921</v>
+        <v>3.034386902605325</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.442690464589323</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.52279347691529</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.616640469260144</v>
+        <v>6.347696283565615</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>13.08077909832314</v>
+      </c>
+      <c r="Q18">
+        <v>11.59772558176326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35.52375207465185</v>
+        <v>22.03558717930264</v>
       </c>
       <c r="C19">
-        <v>33.51089823848136</v>
+        <v>13.96604086676728</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>37.97597430946386</v>
+        <v>8.537884051307049</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>1.951990045887962</v>
+        <v>18.33909268318321</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.219412549690168</v>
       </c>
       <c r="I19">
-        <v>25.28969576291564</v>
+        <v>3.054192050009056</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.630129492890966</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.86530411086841</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.646832757239505</v>
+        <v>7.209640496461131</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.88906276185247</v>
+      </c>
+      <c r="Q19">
+        <v>12.08022359892627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>36.35086111078787</v>
+        <v>23.0820764690806</v>
       </c>
       <c r="C20">
-        <v>34.32231149682819</v>
+        <v>13.56105531393282</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>38.9409617046906</v>
+        <v>9.571368297296926</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>1.944789545664249</v>
+        <v>20.32608151006756</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.299204216296045</v>
       </c>
       <c r="I20">
-        <v>25.91523571919636</v>
+        <v>3.150431517591457</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.913012204250943</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.37310370928509</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.511064754539964</v>
+        <v>8.70788978011349</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.64119014624351</v>
+      </c>
+      <c r="Q20">
+        <v>12.8595030635233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>39.10962644409349</v>
+        <v>24.51101488896695</v>
       </c>
       <c r="C21">
-        <v>37.0438858909686</v>
+        <v>13.99046185488978</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>42.21037562064843</v>
+        <v>9.834087310131585</v>
       </c>
       <c r="F21">
-        <v>39.30090300329778</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>1.919946741264468</v>
+        <v>21.18521523762034</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.510862039321881</v>
       </c>
       <c r="I21">
-        <v>28.05119209386728</v>
+        <v>3.308059180580542</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.95081911068524</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.31687054546324</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.056973672365984</v>
+        <v>9.161648463898288</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.65498094036736</v>
+      </c>
+      <c r="Q21">
+        <v>13.09383169016463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.90971739277056</v>
+        <v>25.38742808479372</v>
       </c>
       <c r="C22">
-        <v>38.83325147323292</v>
+        <v>14.27048426852268</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>44.39095111604148</v>
+        <v>9.949974078107825</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>1.903029604291073</v>
+        <v>21.70102478331336</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.641062322205294</v>
       </c>
       <c r="I22">
-        <v>29.48501943727279</v>
+        <v>3.403282193010717</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.971753694879046</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.27336101425287</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.762434861153189</v>
+        <v>9.381072190364835</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.67231392334857</v>
+      </c>
+      <c r="Q22">
+        <v>13.23406724890363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.9483315358931</v>
+        <v>24.93767936959794</v>
       </c>
       <c r="C23">
-        <v>37.8761948454252</v>
+        <v>14.10360842003204</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>43.22133429495004</v>
+        <v>9.894113491302152</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>1.912135689272537</v>
+        <v>21.463425907912</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.57267977995542</v>
       </c>
       <c r="I23">
-        <v>28.71535300278819</v>
+        <v>3.349106480866943</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.96674543086545</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.31111894723619</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.919364749433502</v>
+        <v>9.262996633847594</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.65674078572529</v>
+      </c>
+      <c r="Q23">
+        <v>13.17502365061968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36.30554259362268</v>
+        <v>23.12689576852857</v>
       </c>
       <c r="C24">
-        <v>34.27780067510175</v>
+        <v>13.48522688198549</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>38.88791724120237</v>
+        <v>9.669447550970871</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>1.945186984157409</v>
+        <v>20.50479884178793</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.306438250438122</v>
       </c>
       <c r="I24">
-        <v>25.88078147932118</v>
+        <v>3.145762158878681</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.943858100119433</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.44044636112438</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.518513723620352</v>
+        <v>8.805063327065831</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.61320807955583</v>
+      </c>
+      <c r="Q24">
+        <v>12.93669756283087</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.29237934597172</v>
+        <v>20.99062575415784</v>
       </c>
       <c r="C25">
-        <v>30.3592592410483</v>
+        <v>12.78617011280779</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>34.26461995603225</v>
+        <v>9.419565051870428</v>
       </c>
       <c r="F25">
-        <v>33.19272459127051</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>1.979064947470577</v>
+        <v>19.47936513095962</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.006169838789036</v>
       </c>
       <c r="I25">
-        <v>23.28057155345172</v>
+        <v>2.919324053677587</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.932674871775612</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.60186034440113</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.17103890853643</v>
+        <v>8.284216149505966</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.57725858517431</v>
+      </c>
+      <c r="Q25">
+        <v>12.70456028125541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.30072487753553</v>
+        <v>19.12829723669761</v>
       </c>
       <c r="C2">
-        <v>12.19728108364479</v>
+        <v>12.18091619107489</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.244798207172478</v>
+        <v>9.107697753615991</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>18.83982165650047</v>
+        <v>17.64689991785791</v>
       </c>
       <c r="H2">
-        <v>1.775745290054195</v>
+        <v>1.795678963262372</v>
       </c>
       <c r="I2">
-        <v>2.738335411312052</v>
+        <v>2.770601746128461</v>
       </c>
       <c r="J2">
-        <v>7.951289948354269</v>
+        <v>8.46688319032847</v>
       </c>
       <c r="K2">
-        <v>12.7741769329387</v>
+        <v>12.5172642777294</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.11823717733042</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.393893968111455</v>
       </c>
       <c r="N2">
-        <v>7.875097121863786</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.54632727789914</v>
+        <v>7.926303594283556</v>
       </c>
       <c r="Q2">
-        <v>12.59615272341875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.57666167259095</v>
+      </c>
+      <c r="S2">
+        <v>12.40337393758201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.03246784103395</v>
+        <v>17.90219575737565</v>
       </c>
       <c r="C3">
-        <v>11.81036406076875</v>
+        <v>11.72647871281717</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.113991997804524</v>
+        <v>8.994024570006053</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>18.35867804365623</v>
+        <v>17.2261587140937</v>
       </c>
       <c r="H3">
-        <v>1.61068817159803</v>
+        <v>1.641372543361176</v>
       </c>
       <c r="I3">
-        <v>2.615039381602546</v>
+        <v>2.660080190215131</v>
       </c>
       <c r="J3">
-        <v>7.961037575006532</v>
+        <v>8.460793037723116</v>
       </c>
       <c r="K3">
-        <v>12.87978655367502</v>
+        <v>12.63743751201885</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.28169143172607</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.434968476872654</v>
       </c>
       <c r="N3">
-        <v>7.588034787498914</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.53883277755069</v>
+        <v>7.641294373455857</v>
       </c>
       <c r="Q3">
-        <v>12.51134460647386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.54521602300109</v>
+      </c>
+      <c r="S3">
+        <v>12.34447816240869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.20312638759308</v>
+        <v>17.10029588996046</v>
       </c>
       <c r="C4">
-        <v>11.56678511115895</v>
+        <v>11.44029810833523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.031617175647828</v>
+        <v>8.922293530328282</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>18.06703044513018</v>
+        <v>16.97257355864297</v>
       </c>
       <c r="H4">
-        <v>1.617010719672691</v>
+        <v>1.578589683647023</v>
       </c>
       <c r="I4">
-        <v>2.537129221102507</v>
+        <v>2.590374599615008</v>
       </c>
       <c r="J4">
-        <v>7.96972446355641</v>
+        <v>8.458038351630504</v>
       </c>
       <c r="K4">
-        <v>12.94859044227327</v>
+        <v>12.71407406773124</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.38568104794929</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.479945145970635</v>
       </c>
       <c r="N4">
-        <v>7.406310679560896</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.53705065896772</v>
+        <v>7.461128848176863</v>
       </c>
       <c r="Q4">
-        <v>12.46446798960078</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.52904818044541</v>
+      </c>
+      <c r="S4">
+        <v>12.31238283825636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.8473014398039</v>
+        <v>16.75605719284167</v>
       </c>
       <c r="C5">
-        <v>11.47134007040069</v>
+        <v>11.32756583014292</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.995846704853696</v>
+        <v>8.890906174056759</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.93787433368064</v>
+        <v>16.85880005984198</v>
       </c>
       <c r="H5">
-        <v>1.662242686110591</v>
+        <v>1.620917240205124</v>
       </c>
       <c r="I5">
-        <v>2.505528759498848</v>
+        <v>2.562482194610354</v>
       </c>
       <c r="J5">
-        <v>7.972238446441407</v>
+        <v>8.45549796227189</v>
       </c>
       <c r="K5">
-        <v>12.97379362195722</v>
+        <v>12.74229004772492</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.42530053547387</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.501357681963956</v>
       </c>
       <c r="N5">
-        <v>7.331427389788596</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.53830851077426</v>
+        <v>7.386960787074819</v>
       </c>
       <c r="Q5">
-        <v>12.44220477838926</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.52457776859914</v>
+      </c>
+      <c r="S5">
+        <v>12.29588106861212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.78122641728321</v>
+        <v>16.69193534916194</v>
       </c>
       <c r="C6">
-        <v>11.46184526017662</v>
+        <v>11.31557900311155</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.98780346176288</v>
+        <v>8.883615072931233</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.90255863194852</v>
+        <v>16.82566373448386</v>
       </c>
       <c r="H6">
-        <v>1.670170290458853</v>
+        <v>1.628351826126213</v>
       </c>
       <c r="I6">
-        <v>2.501333943886737</v>
+        <v>2.559282367412959</v>
       </c>
       <c r="J6">
-        <v>7.970630280938491</v>
+        <v>8.453059450110063</v>
       </c>
       <c r="K6">
-        <v>12.97339156817321</v>
+        <v>12.74248344139196</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.42745859302438</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.502998303892435</v>
       </c>
       <c r="N6">
-        <v>7.3194888816129</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.54014184154422</v>
+        <v>7.375147188621435</v>
       </c>
       <c r="Q6">
-        <v>12.43314831830355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.52552628753689</v>
+      </c>
+      <c r="S6">
+        <v>12.28779683409459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.18181077354255</v>
+        <v>17.07289658738896</v>
       </c>
       <c r="C7">
-        <v>11.58295951145422</v>
+        <v>11.45044859179736</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.025523002034822</v>
+        <v>8.9171765035886</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>18.02753106858703</v>
+        <v>17.02127575296246</v>
       </c>
       <c r="H7">
-        <v>1.618569528636879</v>
+        <v>1.580581538453178</v>
       </c>
       <c r="I7">
-        <v>2.539285915726933</v>
+        <v>2.593051862671598</v>
       </c>
       <c r="J7">
-        <v>7.964123904859656</v>
+        <v>8.417751129223515</v>
       </c>
       <c r="K7">
-        <v>12.9362380080153</v>
+        <v>12.69765616375101</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.37001247333595</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.471432560316726</v>
       </c>
       <c r="N7">
-        <v>7.406854431253422</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.54145282315543</v>
+        <v>7.460832490908557</v>
       </c>
       <c r="Q7">
-        <v>12.44935687393432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.53532030741643</v>
+      </c>
+      <c r="S7">
+        <v>12.2877873410034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.85369746564829</v>
+        <v>18.67636155302235</v>
       </c>
       <c r="C8">
-        <v>12.0876716832731</v>
+        <v>12.02772157729981</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.192923474782223</v>
+        <v>9.064734473169505</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>18.6248418229162</v>
+        <v>17.73916985214937</v>
       </c>
       <c r="H8">
-        <v>1.718477217982577</v>
+        <v>1.740618362870197</v>
       </c>
       <c r="I8">
-        <v>2.69912341633279</v>
+        <v>2.735400022523187</v>
       </c>
       <c r="J8">
-        <v>7.946670084113951</v>
+        <v>8.344291541922978</v>
       </c>
       <c r="K8">
-        <v>12.79296559120033</v>
+        <v>12.52732828802758</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.14691785810892</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.383822429470448</v>
       </c>
       <c r="N8">
-        <v>7.779286868011538</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.54923332552273</v>
+        <v>7.828470686805904</v>
       </c>
       <c r="Q8">
-        <v>12.54645696412707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.5777037733765</v>
+      </c>
+      <c r="S8">
+        <v>12.33127980473152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.75900631013198</v>
+        <v>21.48243448838639</v>
       </c>
       <c r="C9">
-        <v>12.99670145888167</v>
+        <v>13.09190632308509</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.514013116551709</v>
+        <v>9.344743054303171</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>19.88485166156137</v>
+        <v>18.91510509736176</v>
       </c>
       <c r="H9">
-        <v>2.110515949991214</v>
+        <v>2.106676777401955</v>
       </c>
       <c r="I9">
-        <v>2.992142986098546</v>
+        <v>2.997193934248235</v>
       </c>
       <c r="J9">
-        <v>7.9446515403423</v>
+        <v>8.341177942727168</v>
       </c>
       <c r="K9">
-        <v>12.56749075042937</v>
+        <v>12.25459997713927</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.7722856397077</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.394655467999405</v>
       </c>
       <c r="N9">
-        <v>8.460562808063983</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.57914773406815</v>
+        <v>8.505656793664041</v>
       </c>
       <c r="Q9">
-        <v>12.80508969163818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.6709700841746</v>
+      </c>
+      <c r="S9">
+        <v>12.5111570560179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.58954969350194</v>
+        <v>23.22472522755929</v>
       </c>
       <c r="C10">
-        <v>13.68825191260861</v>
+        <v>13.85128899352091</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.61936911362649</v>
+        <v>9.430474605964042</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>20.6349903981971</v>
+        <v>20.07795828371434</v>
       </c>
       <c r="H10">
-        <v>2.370536920334353</v>
+        <v>2.346901401616583</v>
       </c>
       <c r="I10">
-        <v>3.19384112233302</v>
+        <v>3.176490519410031</v>
       </c>
       <c r="J10">
-        <v>7.927944347896111</v>
+        <v>8.132016240717627</v>
       </c>
       <c r="K10">
-        <v>12.36238407745855</v>
+        <v>11.99229960481515</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.46335932658797</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.429157502134973</v>
       </c>
       <c r="N10">
-        <v>8.796336045645056</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.64219684881997</v>
+        <v>8.834873131979471</v>
       </c>
       <c r="Q10">
-        <v>12.94500838866729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.79285731203906</v>
+      </c>
+      <c r="S10">
+        <v>12.54188537172614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.86693213325744</v>
+        <v>23.46166570648322</v>
       </c>
       <c r="C11">
-        <v>14.4632679963466</v>
+        <v>14.5559489752136</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.808014886964601</v>
+        <v>8.652127207831585</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>19.4948148086733</v>
+        <v>20.00050465032094</v>
       </c>
       <c r="H11">
-        <v>3.134365589075672</v>
+        <v>3.110519666410644</v>
       </c>
       <c r="I11">
-        <v>3.247759656662508</v>
+        <v>3.223345346472765</v>
       </c>
       <c r="J11">
-        <v>7.680015818888132</v>
+        <v>7.582268254019916</v>
       </c>
       <c r="K11">
-        <v>11.79062349508334</v>
+        <v>11.43572117386187</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.05844062722387</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.033462392704711</v>
       </c>
       <c r="N11">
-        <v>7.820901366209005</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.90199215722714</v>
+        <v>7.844442846828656</v>
       </c>
       <c r="Q11">
-        <v>12.38752131747401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>13.09308569037633</v>
+      </c>
+      <c r="S11">
+        <v>11.90792832239921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.74636793641575</v>
+        <v>23.34187805864585</v>
       </c>
       <c r="C12">
-        <v>14.9674607790403</v>
+        <v>15.00053431454223</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.36332375713336</v>
+        <v>8.231249063111425</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>18.40431279920461</v>
+        <v>19.44133492577921</v>
       </c>
       <c r="H12">
-        <v>4.321876444104842</v>
+        <v>4.303865187490106</v>
       </c>
       <c r="I12">
-        <v>3.250985523797</v>
+        <v>3.224464874996731</v>
       </c>
       <c r="J12">
-        <v>7.48032059366312</v>
+        <v>7.313270677599895</v>
       </c>
       <c r="K12">
-        <v>11.38880665270332</v>
+        <v>11.0782160847071</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.83190218232448</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.722398536066214</v>
       </c>
       <c r="N12">
-        <v>6.962542532590787</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>13.11455966635543</v>
+        <v>6.977113674582662</v>
       </c>
       <c r="Q12">
-        <v>11.90152552383914</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.31834047001438</v>
+      </c>
+      <c r="S12">
+        <v>11.41718678835928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.2899397025218</v>
+        <v>22.93010650451081</v>
       </c>
       <c r="C13">
-        <v>15.3241437855575</v>
+        <v>15.32151226868255</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.199112571766117</v>
+        <v>8.088130038595128</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>17.21074181034133</v>
+        <v>18.1993291965342</v>
       </c>
       <c r="H13">
-        <v>5.607899321933451</v>
+        <v>5.595770410564485</v>
       </c>
       <c r="I13">
-        <v>3.218993828996092</v>
+        <v>3.19635250306881</v>
       </c>
       <c r="J13">
-        <v>7.297135384060168</v>
+        <v>7.239611429297926</v>
       </c>
       <c r="K13">
-        <v>11.07888659008201</v>
+        <v>10.83931590942265</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.699824114930314</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.46063272383156</v>
       </c>
       <c r="N13">
-        <v>6.149665163628787</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>13.30608371846835</v>
+        <v>6.161016981926434</v>
       </c>
       <c r="Q13">
-        <v>11.41630495893942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.49422987129791</v>
+      </c>
+      <c r="S13">
+        <v>11.00282086779034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.80792790091538</v>
+        <v>22.49938282038437</v>
       </c>
       <c r="C14">
-        <v>15.51605487743687</v>
+        <v>15.49934365393884</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.258125110087876</v>
+        <v>8.162606886200489</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>16.31156235921866</v>
+        <v>17.01089821632199</v>
       </c>
       <c r="H14">
-        <v>6.54039508258811</v>
+        <v>6.531837618820191</v>
       </c>
       <c r="I14">
-        <v>3.181840711257623</v>
+        <v>3.164898150018577</v>
       </c>
       <c r="J14">
-        <v>7.176123191755543</v>
+        <v>7.257973834846173</v>
       </c>
       <c r="K14">
-        <v>10.90838615785067</v>
+        <v>10.72437957757706</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.642576062787629</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.306186381882043</v>
       </c>
       <c r="N14">
-        <v>5.623880496156673</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>13.43233782112402</v>
+        <v>5.635548542747115</v>
       </c>
       <c r="Q14">
-        <v>11.07474206362907</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.59615668030802</v>
+      </c>
+      <c r="S14">
+        <v>10.74156768035694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.6115971042927</v>
+        <v>22.3242511990786</v>
       </c>
       <c r="C15">
-        <v>15.53671230813246</v>
+        <v>15.52171362395258</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.293802255702925</v>
+        <v>8.203260925301965</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>16.05968540208737</v>
+        <v>16.58036622659692</v>
       </c>
       <c r="H15">
-        <v>6.753432946044145</v>
+        <v>6.745979887106386</v>
       </c>
       <c r="I15">
-        <v>3.166089049206684</v>
+        <v>3.15231804842335</v>
       </c>
       <c r="J15">
-        <v>7.148940172568678</v>
+        <v>7.29240959331236</v>
       </c>
       <c r="K15">
-        <v>10.88172571472849</v>
+        <v>10.71404237674619</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.639917535214899</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.2773712121271</v>
       </c>
       <c r="N15">
-        <v>5.502217581117629</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>13.45869185077775</v>
+        <v>5.515043960645644</v>
       </c>
       <c r="Q15">
-        <v>10.98833207244869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.611089997197</v>
+      </c>
+      <c r="S15">
+        <v>10.6875423674273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.91231682863943</v>
+        <v>21.69839036817758</v>
       </c>
       <c r="C16">
-        <v>15.20042498646639</v>
+        <v>15.22441864757381</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.268177903401764</v>
+        <v>8.18800279754846</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>15.90529072165983</v>
+        <v>15.54774163216688</v>
       </c>
       <c r="H16">
-        <v>6.492010004796524</v>
+        <v>6.488085413299951</v>
       </c>
       <c r="I16">
-        <v>3.08788665850501</v>
+        <v>3.086774800767479</v>
       </c>
       <c r="J16">
-        <v>7.190100535113995</v>
+        <v>7.584212547000592</v>
       </c>
       <c r="K16">
-        <v>11.03281033967937</v>
+        <v>10.89024711029111</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.758191551292256</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.369463515891288</v>
       </c>
       <c r="N16">
-        <v>5.494771438490782</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>13.38353270316219</v>
+        <v>5.516951004387578</v>
       </c>
       <c r="Q16">
-        <v>11.0123324512556</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.4902604380801</v>
+      </c>
+      <c r="S16">
+        <v>10.81720129117002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.63332085511235</v>
+        <v>21.44048903362752</v>
       </c>
       <c r="C17">
-        <v>14.83278227196086</v>
+        <v>14.88334772002286</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.189756673258</v>
+        <v>8.10521229308539</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>16.27856121945263</v>
+        <v>15.52697331548393</v>
       </c>
       <c r="H17">
-        <v>5.749069460346467</v>
+        <v>5.746599779984864</v>
       </c>
       <c r="I17">
-        <v>3.047744275838076</v>
+        <v>3.05289921228676</v>
       </c>
       <c r="J17">
-        <v>7.285608018397671</v>
+        <v>7.784684184271823</v>
       </c>
       <c r="K17">
-        <v>11.23409168980602</v>
+        <v>11.08391495665531</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.890217278797252</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.509092138689178</v>
       </c>
       <c r="N17">
-        <v>5.760423246958092</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>13.25990660487748</v>
+        <v>5.788937915285213</v>
       </c>
       <c r="Q17">
-        <v>11.21284585653224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>13.34983888978616</v>
+      </c>
+      <c r="S17">
+        <v>11.04569839304187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.70775083974059</v>
+        <v>21.50278799525304</v>
       </c>
       <c r="C18">
-        <v>14.38981883365574</v>
+        <v>14.47094830316644</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.212899552704119</v>
+        <v>8.109190285115437</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>17.16911694241123</v>
+        <v>16.21410697504599</v>
       </c>
       <c r="H18">
-        <v>4.547334002525643</v>
+        <v>4.544875051762406</v>
       </c>
       <c r="I18">
-        <v>3.034386902605325</v>
+        <v>3.040255798129223</v>
       </c>
       <c r="J18">
-        <v>7.442690464589323</v>
+        <v>7.971419403401105</v>
       </c>
       <c r="K18">
-        <v>11.52279347691529</v>
+        <v>11.34093117192854</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.06917626908885</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.719561131004088</v>
       </c>
       <c r="N18">
-        <v>6.347696283565615</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>13.08077909832314</v>
+        <v>6.381712501086678</v>
       </c>
       <c r="Q18">
-        <v>11.59772558176326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>13.16989803463806</v>
+      </c>
+      <c r="S18">
+        <v>11.41505180008946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.03558717930264</v>
+        <v>21.79733330188196</v>
       </c>
       <c r="C19">
-        <v>13.96604086676728</v>
+        <v>14.08315001899524</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.537884051307049</v>
+        <v>8.403505710520069</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>18.33909268318321</v>
+        <v>17.27121206176716</v>
       </c>
       <c r="H19">
-        <v>3.219412549690168</v>
+        <v>3.214824596535256</v>
       </c>
       <c r="I19">
-        <v>3.054192050009056</v>
+        <v>3.058689602950945</v>
       </c>
       <c r="J19">
-        <v>7.630129492890966</v>
+        <v>8.146227563537991</v>
       </c>
       <c r="K19">
-        <v>11.86530411086841</v>
+        <v>11.63451428566297</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.27439870069453</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.974197117778545</v>
       </c>
       <c r="N19">
-        <v>7.209640496461131</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.88906276185247</v>
+        <v>7.248592904093841</v>
       </c>
       <c r="Q19">
-        <v>12.08022359892627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.98659423849416</v>
+      </c>
+      <c r="S19">
+        <v>11.85576785502654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.0820764690806</v>
+        <v>22.75726357345321</v>
       </c>
       <c r="C20">
-        <v>13.56105531393282</v>
+        <v>13.73080624679405</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.571368297296926</v>
+        <v>9.384846042882465</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>20.32608151006756</v>
+        <v>19.37601780955543</v>
       </c>
       <c r="H20">
-        <v>2.299204216296045</v>
+        <v>2.282126244834621</v>
       </c>
       <c r="I20">
-        <v>3.150431517591457</v>
+        <v>3.143642668407443</v>
       </c>
       <c r="J20">
-        <v>7.913012204250943</v>
+        <v>8.284972575953304</v>
       </c>
       <c r="K20">
-        <v>12.37310370928509</v>
+        <v>12.03693976362365</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.52668002563343</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.393916761183032</v>
       </c>
       <c r="N20">
-        <v>8.70788978011349</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.64119014624351</v>
+        <v>8.750602102747463</v>
       </c>
       <c r="Q20">
-        <v>12.8595030635233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.76968860783435</v>
+      </c>
+      <c r="S20">
+        <v>12.51975812323304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.51101488896695</v>
+        <v>24.02594301195462</v>
       </c>
       <c r="C21">
-        <v>13.99046185488978</v>
+        <v>14.10568667849379</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.834087310131585</v>
+        <v>9.644836607797924</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>21.18521523762034</v>
+        <v>22.0109800266697</v>
       </c>
       <c r="H21">
-        <v>2.510862039321881</v>
+        <v>2.471385409928345</v>
       </c>
       <c r="I21">
-        <v>3.308059180580542</v>
+        <v>3.276363880010448</v>
       </c>
       <c r="J21">
-        <v>7.95081911068524</v>
+        <v>7.616656461547189</v>
       </c>
       <c r="K21">
-        <v>12.31687054546324</v>
+        <v>11.83838137026649</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.30081883445596</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.44140679865265</v>
       </c>
       <c r="N21">
-        <v>9.161648463898288</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.65498094036736</v>
+        <v>9.187749333422301</v>
       </c>
       <c r="Q21">
-        <v>13.09383169016463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.87034626625696</v>
+      </c>
+      <c r="S21">
+        <v>12.48280721982444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.38742808479372</v>
+        <v>24.79873869906223</v>
       </c>
       <c r="C22">
-        <v>14.27048426852268</v>
+        <v>14.34120133972861</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.949974078107825</v>
+        <v>9.76429776325859</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.70102478331336</v>
+        <v>23.78087758302366</v>
       </c>
       <c r="H22">
-        <v>2.641062322205294</v>
+        <v>2.587485246641803</v>
       </c>
       <c r="I22">
-        <v>3.403282193010717</v>
+        <v>3.354599575770178</v>
       </c>
       <c r="J22">
-        <v>7.971753694879046</v>
+        <v>7.217886950642987</v>
       </c>
       <c r="K22">
-        <v>12.27336101425287</v>
+        <v>11.69519258670724</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.15005210432954</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.47043482258881</v>
       </c>
       <c r="N22">
-        <v>9.381072190364835</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.67231392334857</v>
+        <v>9.395643537317037</v>
       </c>
       <c r="Q22">
-        <v>13.23406724890363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.94829630175495</v>
+      </c>
+      <c r="S22">
+        <v>12.43365858778167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.93767936959794</v>
+        <v>24.41586896942853</v>
       </c>
       <c r="C23">
-        <v>14.10360842003204</v>
+        <v>14.2120523733988</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.894113491302152</v>
+        <v>9.703498087432379</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>21.463425907912</v>
+        <v>22.67038792210678</v>
       </c>
       <c r="H23">
-        <v>2.57267977995542</v>
+        <v>2.527377367424144</v>
       </c>
       <c r="I23">
-        <v>3.349106480866943</v>
+        <v>3.308934767918357</v>
       </c>
       <c r="J23">
-        <v>7.96674543086545</v>
+        <v>7.48899273101078</v>
       </c>
       <c r="K23">
-        <v>12.31111894723619</v>
+        <v>11.79654141586785</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.24486768672858</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.478284634189733</v>
       </c>
       <c r="N23">
-        <v>9.262996633847594</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.65674078572529</v>
+        <v>9.285421714403483</v>
       </c>
       <c r="Q23">
-        <v>13.17502365061968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.89414904692621</v>
+      </c>
+      <c r="S23">
+        <v>12.4998548326398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.12689576852857</v>
+        <v>22.7996913866013</v>
       </c>
       <c r="C24">
-        <v>13.48522688198549</v>
+        <v>13.65641709585265</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.669447550970871</v>
+        <v>9.479506131934196</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>20.50479884178793</v>
+        <v>19.53247896953818</v>
       </c>
       <c r="H24">
-        <v>2.306438250438122</v>
+        <v>2.289195657083295</v>
       </c>
       <c r="I24">
-        <v>3.145762158878681</v>
+        <v>3.136729929210177</v>
       </c>
       <c r="J24">
-        <v>7.943858100119433</v>
+        <v>8.317851203281251</v>
       </c>
       <c r="K24">
-        <v>12.44044636112438</v>
+        <v>12.09742471153516</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.5692930100077</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.444948796303545</v>
       </c>
       <c r="N24">
-        <v>8.805063327065831</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.61320807955583</v>
+        <v>8.848386997432296</v>
       </c>
       <c r="Q24">
-        <v>12.93669756283087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.74103612830267</v>
+      </c>
+      <c r="S24">
+        <v>12.59350931542011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.99062575415784</v>
+        <v>20.747118070535</v>
       </c>
       <c r="C25">
-        <v>12.78617011280779</v>
+        <v>12.85141392202183</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.419565051870428</v>
+        <v>9.260150822526818</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>19.47936513095962</v>
+        <v>18.41193600253722</v>
       </c>
       <c r="H25">
-        <v>2.006169838789036</v>
+        <v>2.009824788111369</v>
       </c>
       <c r="I25">
-        <v>2.919324053677587</v>
+        <v>2.934927253135383</v>
       </c>
       <c r="J25">
-        <v>7.932674871775612</v>
+        <v>8.379479362609676</v>
       </c>
       <c r="K25">
-        <v>12.60186034440113</v>
+        <v>12.31035025514937</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.85898152024741</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.361985857861997</v>
       </c>
       <c r="N25">
-        <v>8.284216149505966</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.57725858517431</v>
+        <v>8.331296540999672</v>
       </c>
       <c r="Q25">
-        <v>12.70456028125541</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.64938218722058</v>
+      </c>
+      <c r="S25">
+        <v>12.4467027683269</v>
       </c>
     </row>
   </sheetData>
